--- a/65xxOpCodes.xlsx
+++ b/65xxOpCodes.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\detle\Documents\GitHub\PSAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547C6DBA-E3BC-4AE5-B7AA-3E0CC42EB99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F086ABC2-85CC-440B-BE64-7C353B2471F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C8AEC6DB-0449-4C23-B48D-AD6D67839870}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C8AEC6DB-0449-4C23-B48D-AD6D67839870}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$A$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="358">
   <si>
     <t>LDA #[d8]</t>
   </si>
@@ -1075,13 +1076,52 @@
   </si>
   <si>
     <t>PAD</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Type Order</t>
+  </si>
+  <si>
+    <t>AM Order</t>
+  </si>
+  <si>
+    <t>Addressing Mode</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,16 +1129,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1106,13 +1172,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,6 +1301,17 @@
     <tableColumn id="8" xr3:uid="{8FDF1722-2689-4AB2-9E6C-56697A0234CD}" name="JSON2" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.CONCAT("""",H2,""" : { ""OpCode"" : """,B2,""", ""AddressingMode"": """,C2,""", ""Format"": """,A2,""", ""Bytes"": """,D2,""", ""MinCycles"": """,E2,""", ""MaxCycles"": """,F2,""" },")</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{06A6FC4E-56E0-412E-A64C-B00F59E23069}" name="Table4" displayName="Table4" ref="A1:B14" totalsRowShown="0">
+  <autoFilter ref="A1:B14" xr:uid="{06A6FC4E-56E0-412E-A64C-B00F59E23069}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C63C16B5-B589-4B0A-B034-C87AC703BFEA}" name="Addressing Mode"/>
+    <tableColumn id="2" xr3:uid="{7144A4D0-3AFA-468C-AC57-353D3F76EF53}" name="Order"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1459,7 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE44505B-0327-414D-B4B2-6907463C33E8}">
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A141" sqref="A2:A158"/>
     </sheetView>
   </sheetViews>
@@ -1533,11 +1690,11 @@
         <v>BRK</v>
       </c>
       <c r="I2" t="str">
-        <f>_xlfn.CONCAT("""",A2, """ : { ""OpCode"" : """, B2, """, ""AddressingMode"": """,C2, """ }," )</f>
+        <f t="shared" ref="I2:I33" si="0">_xlfn.CONCAT("""",A2, """ : { ""OpCode"" : """, B2, """, ""AddressingMode"": """,C2, """ }," )</f>
         <v>"BRK" : { "OpCode" : "0x00", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J65" si="0">_xlfn.CONCAT("""",H2,""" : { ""OpCode"" : """,B2,""", ""AddressingMode"": """,C2,""", ""Format"": """,A2,""", ""Bytes"": """,D2,""", ""MinCycles"": """,E2,""", ""MaxCycles"": """,F2,""" },")</f>
+        <f t="shared" ref="J2:J65" si="1">_xlfn.CONCAT("""",H2,""" : { ""OpCode"" : """,B2,""", ""AddressingMode"": """,C2,""", ""Format"": """,A2,""", ""Bytes"": """,D2,""", ""MinCycles"": """,E2,""", ""MaxCycles"": """,F2,""" },")</f>
         <v>"BRK" : { "OpCode" : "0x00", "AddressingMode": "Implied", "Format": "BRK", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -1568,11 +1725,11 @@
         <v>ORA.i,X</v>
       </c>
       <c r="I3" t="str">
-        <f>_xlfn.CONCAT("""",A3, """ : { ""OpCode"" : """, B3, """, ""AddressingMode"": """,C3, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ORA ([d8],X)" : { "OpCode" : "0x01", "AddressingMode": "IndexedIndirectX" },</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ORA.i,X" : { "OpCode" : "0x01", "AddressingMode": "IndexedIndirectX", "Format": "ORA ([d8],X)", "Bytes": "1", "MinCycles": "5", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -1603,11 +1760,11 @@
         <v>ORA.zp</v>
       </c>
       <c r="I4" t="str">
-        <f>_xlfn.CONCAT("""",A4, """ : { ""OpCode"" : """, B4, """, ""AddressingMode"": """,C4, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ORA [d8]" : { "OpCode" : "0x05", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ORA.zp" : { "OpCode" : "0x05", "AddressingMode": "ZeroPage", "Format": "ORA [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -1638,11 +1795,11 @@
         <v>ASL.zp</v>
       </c>
       <c r="I5" t="str">
-        <f>_xlfn.CONCAT("""",A5, """ : { ""OpCode"" : """, B5, """, ""AddressingMode"": """,C5, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ASL [d8]" : { "OpCode" : "0x06", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ASL.zp" : { "OpCode" : "0x06", "AddressingMode": "ZeroPage", "Format": "ASL [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -1670,11 +1827,11 @@
         <v>PHP</v>
       </c>
       <c r="I6" t="str">
-        <f>_xlfn.CONCAT("""",A6, """ : { ""OpCode"" : """, B6, """, ""AddressingMode"": """,C6, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"PHP" : { "OpCode" : "0x08", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"PHP" : { "OpCode" : "0x08", "AddressingMode": "Implied", "Format": "PHP", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -1705,11 +1862,11 @@
         <v>ORA.#</v>
       </c>
       <c r="I7" t="str">
-        <f>_xlfn.CONCAT("""",A7, """ : { ""OpCode"" : """, B7, """, ""AddressingMode"": """,C7, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ORA #[d8]" : { "OpCode" : "0x09", "AddressingMode": "Immediate" },</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ORA.#" : { "OpCode" : "0x09", "AddressingMode": "Immediate", "Format": "ORA #[d8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -1736,11 +1893,11 @@
         <v>336</v>
       </c>
       <c r="I8" t="str">
-        <f>_xlfn.CONCAT("""",A8, """ : { ""OpCode"" : """, B8, """, ""AddressingMode"": """,C8, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ASL A" : { "OpCode" : "0x0a", "AddressingMode": "Accumulator" },</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ASL.A" : { "OpCode" : "0x0a", "AddressingMode": "Accumulator", "Format": "ASL A", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -1768,11 +1925,11 @@
         <v>ORA</v>
       </c>
       <c r="I9" t="str">
-        <f>_xlfn.CONCAT("""",A9, """ : { ""OpCode"" : """, B9, """, ""AddressingMode"": """,C9, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ORA [a16]" : { "OpCode" : "0x0d", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ORA" : { "OpCode" : "0x0d", "AddressingMode": "Absolute", "Format": "ORA [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -1800,11 +1957,11 @@
         <v>ASL</v>
       </c>
       <c r="I10" t="str">
-        <f>_xlfn.CONCAT("""",A10, """ : { ""OpCode"" : """, B10, """, ""AddressingMode"": """,C10, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ASL [a16]" : { "OpCode" : "0x0e", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ASL" : { "OpCode" : "0x0e", "AddressingMode": "Absolute", "Format": "ASL [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -1832,11 +1989,11 @@
         <v>BPL</v>
       </c>
       <c r="I11" t="str">
-        <f>_xlfn.CONCAT("""",A11, """ : { ""OpCode"" : """, B11, """, ""AddressingMode"": """,C11, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"BPL [r8]" : { "OpCode" : "0x10", "AddressingMode": "Relative" },</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"BPL" : { "OpCode" : "0x10", "AddressingMode": "Relative", "Format": "BPL [r8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -1867,11 +2024,11 @@
         <v>ORA.i,Y</v>
       </c>
       <c r="I12" t="str">
-        <f>_xlfn.CONCAT("""",A12, """ : { ""OpCode"" : """, B12, """, ""AddressingMode"": """,C12, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ORA ([d8]),Y" : { "OpCode" : "0x11", "AddressingMode": "IndexedIndirectY" },</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ORA.i,Y" : { "OpCode" : "0x11", "AddressingMode": "IndexedIndirectY", "Format": "ORA ([d8]),Y", "Bytes": "1", "MinCycles": "6", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -1902,11 +2059,11 @@
         <v>ORA.zp,X</v>
       </c>
       <c r="I13" t="str">
-        <f>_xlfn.CONCAT("""",A13, """ : { ""OpCode"" : """, B13, """, ""AddressingMode"": """,C13, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ORA [d8],X" : { "OpCode" : "0x15", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ORA.zp,X" : { "OpCode" : "0x15", "AddressingMode": "ZeroPageX", "Format": "ORA [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -1937,11 +2094,11 @@
         <v>ASL.zp,X</v>
       </c>
       <c r="I14" t="str">
-        <f>_xlfn.CONCAT("""",A14, """ : { ""OpCode"" : """, B14, """, ""AddressingMode"": """,C14, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ASL [d8],X" : { "OpCode" : "0x16", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ASL.zp,X" : { "OpCode" : "0x16", "AddressingMode": "ZeroPageX", "Format": "ASL [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -1969,11 +2126,11 @@
         <v>CLC</v>
       </c>
       <c r="I15" t="str">
-        <f>_xlfn.CONCAT("""",A15, """ : { ""OpCode"" : """, B15, """, ""AddressingMode"": """,C15, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"CLC" : { "OpCode" : "0x18", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"CLC" : { "OpCode" : "0x18", "AddressingMode": "Implied", "Format": "CLC", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -2004,11 +2161,11 @@
         <v>ORA,Y</v>
       </c>
       <c r="I16" t="str">
-        <f>_xlfn.CONCAT("""",A16, """ : { ""OpCode"" : """, B16, """, ""AddressingMode"": """,C16, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ORA [a16],Y" : { "OpCode" : "0x19", "AddressingMode": "AbsoluteY" },</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ORA,Y" : { "OpCode" : "0x19", "AddressingMode": "AbsoluteY", "Format": "ORA [a16],Y", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -2039,11 +2196,11 @@
         <v>ORA,X</v>
       </c>
       <c r="I17" t="str">
-        <f>_xlfn.CONCAT("""",A17, """ : { ""OpCode"" : """, B17, """, ""AddressingMode"": """,C17, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ORA [a16],X" : { "OpCode" : "0x1d", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ORA,X" : { "OpCode" : "0x1d", "AddressingMode": "AbsoluteX", "Format": "ORA [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -2074,11 +2231,11 @@
         <v>ASL,X</v>
       </c>
       <c r="I18" t="str">
-        <f>_xlfn.CONCAT("""",A18, """ : { ""OpCode"" : """, B18, """, ""AddressingMode"": """,C18, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ASL [a16],X" : { "OpCode" : "0x1e", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ASL,X" : { "OpCode" : "0x1e", "AddressingMode": "AbsoluteX", "Format": "ASL [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -2106,11 +2263,11 @@
         <v>JSR</v>
       </c>
       <c r="I19" t="str">
-        <f>_xlfn.CONCAT("""",A19, """ : { ""OpCode"" : """, B19, """, ""AddressingMode"": """,C19, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"JSR [a16]" : { "OpCode" : "0x20", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"JSR" : { "OpCode" : "0x20", "AddressingMode": "Absolute", "Format": "JSR [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -2141,11 +2298,11 @@
         <v>AND.i,X</v>
       </c>
       <c r="I20" t="str">
-        <f>_xlfn.CONCAT("""",A20, """ : { ""OpCode"" : """, B20, """, ""AddressingMode"": """,C20, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"AND ([d8],X)" : { "OpCode" : "0x21", "AddressingMode": "IndexedIndirectX" },</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"AND.i,X" : { "OpCode" : "0x21", "AddressingMode": "IndexedIndirectX", "Format": "AND ([d8],X)", "Bytes": "1", "MinCycles": "5", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -2176,11 +2333,11 @@
         <v>BIT.zp</v>
       </c>
       <c r="I21" t="str">
-        <f>_xlfn.CONCAT("""",A21, """ : { ""OpCode"" : """, B21, """, ""AddressingMode"": """,C21, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"BIT [d8]" : { "OpCode" : "0x24", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"BIT.zp" : { "OpCode" : "0x24", "AddressingMode": "ZeroPage", "Format": "BIT [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -2211,11 +2368,11 @@
         <v>AND.zp</v>
       </c>
       <c r="I22" t="str">
-        <f>_xlfn.CONCAT("""",A22, """ : { ""OpCode"" : """, B22, """, ""AddressingMode"": """,C22, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"AND [d8]" : { "OpCode" : "0x25", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"AND.zp" : { "OpCode" : "0x25", "AddressingMode": "ZeroPage", "Format": "AND [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -2246,11 +2403,11 @@
         <v>ROL.zp</v>
       </c>
       <c r="I23" t="str">
-        <f>_xlfn.CONCAT("""",A23, """ : { ""OpCode"" : """, B23, """, ""AddressingMode"": """,C23, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ROL [d8]" : { "OpCode" : "0x26", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ROL.zp" : { "OpCode" : "0x26", "AddressingMode": "ZeroPage", "Format": "ROL [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -2278,11 +2435,11 @@
         <v>PLP</v>
       </c>
       <c r="I24" t="str">
-        <f>_xlfn.CONCAT("""",A24, """ : { ""OpCode"" : """, B24, """, ""AddressingMode"": """,C24, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"PLP" : { "OpCode" : "0x28", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"PLP" : { "OpCode" : "0x28", "AddressingMode": "Implied", "Format": "PLP", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -2313,11 +2470,11 @@
         <v>AND.#</v>
       </c>
       <c r="I25" t="str">
-        <f>_xlfn.CONCAT("""",A25, """ : { ""OpCode"" : """, B25, """, ""AddressingMode"": """,C25, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"AND #[d8]" : { "OpCode" : "0x29", "AddressingMode": "Immediate" },</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"AND.#" : { "OpCode" : "0x29", "AddressingMode": "Immediate", "Format": "AND #[d8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -2344,11 +2501,11 @@
         <v>338</v>
       </c>
       <c r="I26" t="str">
-        <f>_xlfn.CONCAT("""",A26, """ : { ""OpCode"" : """, B26, """, ""AddressingMode"": """,C26, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ROL A" : { "OpCode" : "0x2a", "AddressingMode": "Accumulator" },</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ROL.A" : { "OpCode" : "0x2a", "AddressingMode": "Accumulator", "Format": "ROL A", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -2376,11 +2533,11 @@
         <v>BIT</v>
       </c>
       <c r="I27" t="str">
-        <f>_xlfn.CONCAT("""",A27, """ : { ""OpCode"" : """, B27, """, ""AddressingMode"": """,C27, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"BIT [a16]" : { "OpCode" : "0x2c", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"BIT" : { "OpCode" : "0x2c", "AddressingMode": "Absolute", "Format": "BIT [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -2408,11 +2565,11 @@
         <v>AND</v>
       </c>
       <c r="I28" t="str">
-        <f>_xlfn.CONCAT("""",A28, """ : { ""OpCode"" : """, B28, """, ""AddressingMode"": """,C28, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"AND [a16]" : { "OpCode" : "0x2d", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"AND" : { "OpCode" : "0x2d", "AddressingMode": "Absolute", "Format": "AND [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -2440,11 +2597,11 @@
         <v>ROL</v>
       </c>
       <c r="I29" t="str">
-        <f>_xlfn.CONCAT("""",A29, """ : { ""OpCode"" : """, B29, """, ""AddressingMode"": """,C29, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ROL [a16]" : { "OpCode" : "0x2e", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ROL" : { "OpCode" : "0x2e", "AddressingMode": "Absolute", "Format": "ROL [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -2472,11 +2629,11 @@
         <v>BMI</v>
       </c>
       <c r="I30" t="str">
-        <f>_xlfn.CONCAT("""",A30, """ : { ""OpCode"" : """, B30, """, ""AddressingMode"": """,C30, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"BMI [r8]" : { "OpCode" : "0x30", "AddressingMode": "Relative" },</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"BMI" : { "OpCode" : "0x30", "AddressingMode": "Relative", "Format": "BMI [r8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -2507,11 +2664,11 @@
         <v>AND.i,Y</v>
       </c>
       <c r="I31" t="str">
-        <f>_xlfn.CONCAT("""",A31, """ : { ""OpCode"" : """, B31, """, ""AddressingMode"": """,C31, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"AND ([d8]),Y" : { "OpCode" : "0x31", "AddressingMode": "IndexedIndirectY" },</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"AND.i,Y" : { "OpCode" : "0x31", "AddressingMode": "IndexedIndirectY", "Format": "AND ([d8]),Y", "Bytes": "1", "MinCycles": "6", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -2542,11 +2699,11 @@
         <v>AND.zp,X</v>
       </c>
       <c r="I32" t="str">
-        <f>_xlfn.CONCAT("""",A32, """ : { ""OpCode"" : """, B32, """, ""AddressingMode"": """,C32, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"AND [d8],X" : { "OpCode" : "0x35", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"AND.zp,X" : { "OpCode" : "0x35", "AddressingMode": "ZeroPageX", "Format": "AND [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -2577,11 +2734,11 @@
         <v>ROL.zp,X</v>
       </c>
       <c r="I33" t="str">
-        <f>_xlfn.CONCAT("""",A33, """ : { ""OpCode"" : """, B33, """, ""AddressingMode"": """,C33, """ }," )</f>
+        <f t="shared" si="0"/>
         <v>"ROL [d8],X" : { "OpCode" : "0x36", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ROL.zp,X" : { "OpCode" : "0x36", "AddressingMode": "ZeroPageX", "Format": "ROL [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -2609,11 +2766,11 @@
         <v>SEC</v>
       </c>
       <c r="I34" t="str">
-        <f>_xlfn.CONCAT("""",A34, """ : { ""OpCode"" : """, B34, """, ""AddressingMode"": """,C34, """ }," )</f>
+        <f t="shared" ref="I34:I65" si="2">_xlfn.CONCAT("""",A34, """ : { ""OpCode"" : """, B34, """, ""AddressingMode"": """,C34, """ }," )</f>
         <v>"SEC" : { "OpCode" : "0x38", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"SEC" : { "OpCode" : "0x38", "AddressingMode": "Implied", "Format": "SEC", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -2644,11 +2801,11 @@
         <v>AND,Y</v>
       </c>
       <c r="I35" t="str">
-        <f>_xlfn.CONCAT("""",A35, """ : { ""OpCode"" : """, B35, """, ""AddressingMode"": """,C35, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"AND [a16],Y" : { "OpCode" : "0x39", "AddressingMode": "AbsoluteY" },</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"AND,Y" : { "OpCode" : "0x39", "AddressingMode": "AbsoluteY", "Format": "AND [a16],Y", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -2679,11 +2836,11 @@
         <v>AND,X</v>
       </c>
       <c r="I36" t="str">
-        <f>_xlfn.CONCAT("""",A36, """ : { ""OpCode"" : """, B36, """, ""AddressingMode"": """,C36, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"AND [a16],X" : { "OpCode" : "0x3d", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"AND,X" : { "OpCode" : "0x3d", "AddressingMode": "AbsoluteX", "Format": "AND [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -2714,11 +2871,11 @@
         <v>ROL,X</v>
       </c>
       <c r="I37" t="str">
-        <f>_xlfn.CONCAT("""",A37, """ : { ""OpCode"" : """, B37, """, ""AddressingMode"": """,C37, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"ROL [a16],X" : { "OpCode" : "0x3e", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ROL,X" : { "OpCode" : "0x3e", "AddressingMode": "AbsoluteX", "Format": "ROL [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -2746,11 +2903,11 @@
         <v>RTI</v>
       </c>
       <c r="I38" t="str">
-        <f>_xlfn.CONCAT("""",A38, """ : { ""OpCode"" : """, B38, """, ""AddressingMode"": """,C38, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"RTI" : { "OpCode" : "0x40", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"RTI" : { "OpCode" : "0x40", "AddressingMode": "Implied", "Format": "RTI", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -2781,11 +2938,11 @@
         <v>EOR.i,X</v>
       </c>
       <c r="I39" t="str">
-        <f>_xlfn.CONCAT("""",A39, """ : { ""OpCode"" : """, B39, """, ""AddressingMode"": """,C39, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"EOR ([d8],X)" : { "OpCode" : "0x41", "AddressingMode": "IndexedIndirectX" },</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"EOR.i,X" : { "OpCode" : "0x41", "AddressingMode": "IndexedIndirectX", "Format": "EOR ([d8],X)", "Bytes": "1", "MinCycles": "5", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -2816,11 +2973,11 @@
         <v>EOR.zp</v>
       </c>
       <c r="I40" t="str">
-        <f>_xlfn.CONCAT("""",A40, """ : { ""OpCode"" : """, B40, """, ""AddressingMode"": """,C40, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"EOR [d8]" : { "OpCode" : "0x45", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"EOR.zp" : { "OpCode" : "0x45", "AddressingMode": "ZeroPage", "Format": "EOR [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -2851,11 +3008,11 @@
         <v>LSR.zp</v>
       </c>
       <c r="I41" t="str">
-        <f>_xlfn.CONCAT("""",A41, """ : { ""OpCode"" : """, B41, """, ""AddressingMode"": """,C41, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"LSR [d8]" : { "OpCode" : "0x46", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"LSR.zp" : { "OpCode" : "0x46", "AddressingMode": "ZeroPage", "Format": "LSR [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -2883,11 +3040,11 @@
         <v>PHA</v>
       </c>
       <c r="I42" t="str">
-        <f>_xlfn.CONCAT("""",A42, """ : { ""OpCode"" : """, B42, """, ""AddressingMode"": """,C42, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"PHA" : { "OpCode" : "0x48", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"PHA" : { "OpCode" : "0x48", "AddressingMode": "Implied", "Format": "PHA", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -2918,11 +3075,11 @@
         <v>EOR.#</v>
       </c>
       <c r="I43" t="str">
-        <f>_xlfn.CONCAT("""",A43, """ : { ""OpCode"" : """, B43, """, ""AddressingMode"": """,C43, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"EOR #[d8]" : { "OpCode" : "0x49", "AddressingMode": "Immediate" },</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"EOR.#" : { "OpCode" : "0x49", "AddressingMode": "Immediate", "Format": "EOR #[d8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -2949,11 +3106,11 @@
         <v>337</v>
       </c>
       <c r="I44" t="str">
-        <f>_xlfn.CONCAT("""",A44, """ : { ""OpCode"" : """, B44, """, ""AddressingMode"": """,C44, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"LSR A" : { "OpCode" : "0x4a", "AddressingMode": "Accumulator" },</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"LSR.A" : { "OpCode" : "0x4a", "AddressingMode": "Accumulator", "Format": "LSR A", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -2981,11 +3138,11 @@
         <v>JMP</v>
       </c>
       <c r="I45" t="str">
-        <f>_xlfn.CONCAT("""",A45, """ : { ""OpCode"" : """, B45, """, ""AddressingMode"": """,C45, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"JMP [a16]" : { "OpCode" : "0x4c", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"JMP" : { "OpCode" : "0x4c", "AddressingMode": "Absolute", "Format": "JMP [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -3013,11 +3170,11 @@
         <v>EOR</v>
       </c>
       <c r="I46" t="str">
-        <f>_xlfn.CONCAT("""",A46, """ : { ""OpCode"" : """, B46, """, ""AddressingMode"": """,C46, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"EOR [a16]" : { "OpCode" : "0x4d", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"EOR" : { "OpCode" : "0x4d", "AddressingMode": "Absolute", "Format": "EOR [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -3045,11 +3202,11 @@
         <v>LSR</v>
       </c>
       <c r="I47" t="str">
-        <f>_xlfn.CONCAT("""",A47, """ : { ""OpCode"" : """, B47, """, ""AddressingMode"": """,C47, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"LSR [a16]" : { "OpCode" : "0x4e", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"LSR" : { "OpCode" : "0x4e", "AddressingMode": "Absolute", "Format": "LSR [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -3077,11 +3234,11 @@
         <v>BVC</v>
       </c>
       <c r="I48" t="str">
-        <f>_xlfn.CONCAT("""",A48, """ : { ""OpCode"" : """, B48, """, ""AddressingMode"": """,C48, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"BVC [r8]" : { "OpCode" : "0x50", "AddressingMode": "Relative" },</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"BVC" : { "OpCode" : "0x50", "AddressingMode": "Relative", "Format": "BVC [r8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -3112,11 +3269,11 @@
         <v>EOR.i,Y</v>
       </c>
       <c r="I49" t="str">
-        <f>_xlfn.CONCAT("""",A49, """ : { ""OpCode"" : """, B49, """, ""AddressingMode"": """,C49, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"EOR ([d8]),Y" : { "OpCode" : "0x51", "AddressingMode": "IndexedIndirectY" },</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"EOR.i,Y" : { "OpCode" : "0x51", "AddressingMode": "IndexedIndirectY", "Format": "EOR ([d8]),Y", "Bytes": "1", "MinCycles": "6", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -3147,11 +3304,11 @@
         <v>EOR.zp,X</v>
       </c>
       <c r="I50" t="str">
-        <f>_xlfn.CONCAT("""",A50, """ : { ""OpCode"" : """, B50, """, ""AddressingMode"": """,C50, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"EOR [d8],X" : { "OpCode" : "0x55", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"EOR.zp,X" : { "OpCode" : "0x55", "AddressingMode": "ZeroPageX", "Format": "EOR [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -3182,11 +3339,11 @@
         <v>LSR.zp,X</v>
       </c>
       <c r="I51" t="str">
-        <f>_xlfn.CONCAT("""",A51, """ : { ""OpCode"" : """, B51, """, ""AddressingMode"": """,C51, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"LSR [d8],X" : { "OpCode" : "0x56", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"LSR.zp,X" : { "OpCode" : "0x56", "AddressingMode": "ZeroPageX", "Format": "LSR [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -3214,11 +3371,11 @@
         <v>CLI</v>
       </c>
       <c r="I52" t="str">
-        <f>_xlfn.CONCAT("""",A52, """ : { ""OpCode"" : """, B52, """, ""AddressingMode"": """,C52, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"CLI" : { "OpCode" : "0x58", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"CLI" : { "OpCode" : "0x58", "AddressingMode": "Implied", "Format": "CLI", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -3249,11 +3406,11 @@
         <v>EOR,Y</v>
       </c>
       <c r="I53" t="str">
-        <f>_xlfn.CONCAT("""",A53, """ : { ""OpCode"" : """, B53, """, ""AddressingMode"": """,C53, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"EOR [a16],Y" : { "OpCode" : "0x59", "AddressingMode": "AbsoluteY" },</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"EOR,Y" : { "OpCode" : "0x59", "AddressingMode": "AbsoluteY", "Format": "EOR [a16],Y", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -3284,11 +3441,11 @@
         <v>EOR,X</v>
       </c>
       <c r="I54" t="str">
-        <f>_xlfn.CONCAT("""",A54, """ : { ""OpCode"" : """, B54, """, ""AddressingMode"": """,C54, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"EOR [a16],X" : { "OpCode" : "0x5d", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"EOR,X" : { "OpCode" : "0x5d", "AddressingMode": "AbsoluteX", "Format": "EOR [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -3319,11 +3476,11 @@
         <v>LSR,X</v>
       </c>
       <c r="I55" t="str">
-        <f>_xlfn.CONCAT("""",A55, """ : { ""OpCode"" : """, B55, """, ""AddressingMode"": """,C55, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"LSR [a16],X" : { "OpCode" : "0x5e", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"LSR,X" : { "OpCode" : "0x5e", "AddressingMode": "AbsoluteX", "Format": "LSR [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -3351,11 +3508,11 @@
         <v>RTS</v>
       </c>
       <c r="I56" t="str">
-        <f>_xlfn.CONCAT("""",A56, """ : { ""OpCode"" : """, B56, """, ""AddressingMode"": """,C56, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"RTS" : { "OpCode" : "0x60", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"RTS" : { "OpCode" : "0x60", "AddressingMode": "Implied", "Format": "RTS", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -3386,11 +3543,11 @@
         <v>ADC.i,X</v>
       </c>
       <c r="I57" t="str">
-        <f>_xlfn.CONCAT("""",A57, """ : { ""OpCode"" : """, B57, """, ""AddressingMode"": """,C57, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"ADC ([d8],X)" : { "OpCode" : "0x61", "AddressingMode": "IndexedIndirectX" },</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ADC.i,X" : { "OpCode" : "0x61", "AddressingMode": "IndexedIndirectX", "Format": "ADC ([d8],X)", "Bytes": "1", "MinCycles": "5", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -3421,11 +3578,11 @@
         <v>ADC.zp</v>
       </c>
       <c r="I58" t="str">
-        <f>_xlfn.CONCAT("""",A58, """ : { ""OpCode"" : """, B58, """, ""AddressingMode"": """,C58, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"ADC [d8]" : { "OpCode" : "0x65", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ADC.zp" : { "OpCode" : "0x65", "AddressingMode": "ZeroPage", "Format": "ADC [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -3456,11 +3613,11 @@
         <v>ROR.zp</v>
       </c>
       <c r="I59" t="str">
-        <f>_xlfn.CONCAT("""",A59, """ : { ""OpCode"" : """, B59, """, ""AddressingMode"": """,C59, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"ROR [d8]" : { "OpCode" : "0x66", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ROR.zp" : { "OpCode" : "0x66", "AddressingMode": "ZeroPage", "Format": "ROR [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -3488,11 +3645,11 @@
         <v>PLA</v>
       </c>
       <c r="I60" t="str">
-        <f>_xlfn.CONCAT("""",A60, """ : { ""OpCode"" : """, B60, """, ""AddressingMode"": """,C60, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"PLA" : { "OpCode" : "0x68", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"PLA" : { "OpCode" : "0x68", "AddressingMode": "Implied", "Format": "PLA", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -3523,11 +3680,11 @@
         <v>ADC.#</v>
       </c>
       <c r="I61" t="str">
-        <f>_xlfn.CONCAT("""",A61, """ : { ""OpCode"" : """, B61, """, ""AddressingMode"": """,C61, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"ADC #[d8]" : { "OpCode" : "0x69", "AddressingMode": "Immediate" },</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ADC.#" : { "OpCode" : "0x69", "AddressingMode": "Immediate", "Format": "ADC #[d8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -3554,11 +3711,11 @@
         <v>339</v>
       </c>
       <c r="I62" t="str">
-        <f>_xlfn.CONCAT("""",A62, """ : { ""OpCode"" : """, B62, """, ""AddressingMode"": """,C62, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"ROR A" : { "OpCode" : "0x6a", "AddressingMode": "Accumulator" },</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ROR.A" : { "OpCode" : "0x6a", "AddressingMode": "Accumulator", "Format": "ROR A", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -3589,11 +3746,11 @@
         <v>JMP.i</v>
       </c>
       <c r="I63" t="str">
-        <f>_xlfn.CONCAT("""",A63, """ : { ""OpCode"" : """, B63, """, ""AddressingMode"": """,C63, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"JMP ([a16])" : { "OpCode" : "0x6c", "AddressingMode": "Indirect" },</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"JMP.i" : { "OpCode" : "0x6c", "AddressingMode": "Indirect", "Format": "JMP ([a16])", "Bytes": "2", "MinCycles": "5", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -3621,11 +3778,11 @@
         <v>ADC</v>
       </c>
       <c r="I64" t="str">
-        <f>_xlfn.CONCAT("""",A64, """ : { ""OpCode"" : """, B64, """, ""AddressingMode"": """,C64, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"ADC [a16]" : { "OpCode" : "0x6d", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ADC" : { "OpCode" : "0x6d", "AddressingMode": "Absolute", "Format": "ADC [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -3653,11 +3810,11 @@
         <v>ROR</v>
       </c>
       <c r="I65" t="str">
-        <f>_xlfn.CONCAT("""",A65, """ : { ""OpCode"" : """, B65, """, ""AddressingMode"": """,C65, """ }," )</f>
+        <f t="shared" si="2"/>
         <v>"ROR [a16]" : { "OpCode" : "0x6e", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>"ROR" : { "OpCode" : "0x6e", "AddressingMode": "Absolute", "Format": "ROR [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -3685,11 +3842,11 @@
         <v>BVS</v>
       </c>
       <c r="I66" t="str">
-        <f>_xlfn.CONCAT("""",A66, """ : { ""OpCode"" : """, B66, """, ""AddressingMode"": """,C66, """ }," )</f>
+        <f t="shared" ref="I66:I97" si="3">_xlfn.CONCAT("""",A66, """ : { ""OpCode"" : """, B66, """, ""AddressingMode"": """,C66, """ }," )</f>
         <v>"BVS [r8]" : { "OpCode" : "0x70", "AddressingMode": "Relative" },</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" ref="J66:J129" si="1">_xlfn.CONCAT("""",H66,""" : { ""OpCode"" : """,B66,""", ""AddressingMode"": """,C66,""", ""Format"": """,A66,""", ""Bytes"": """,D66,""", ""MinCycles"": """,E66,""", ""MaxCycles"": """,F66,""" },")</f>
+        <f t="shared" ref="J66:J129" si="4">_xlfn.CONCAT("""",H66,""" : { ""OpCode"" : """,B66,""", ""AddressingMode"": """,C66,""", ""Format"": """,A66,""", ""Bytes"": """,D66,""", ""MinCycles"": """,E66,""", ""MaxCycles"": """,F66,""" },")</f>
         <v>"BVS" : { "OpCode" : "0x70", "AddressingMode": "Relative", "Format": "BVS [r8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -3720,11 +3877,11 @@
         <v>ADC.i,Y</v>
       </c>
       <c r="I67" t="str">
-        <f>_xlfn.CONCAT("""",A67, """ : { ""OpCode"" : """, B67, """, ""AddressingMode"": """,C67, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"ADC ([d8]),Y" : { "OpCode" : "0x71", "AddressingMode": "IndexedIndirectY" },</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"ADC.i,Y" : { "OpCode" : "0x71", "AddressingMode": "IndexedIndirectY", "Format": "ADC ([d8]),Y", "Bytes": "1", "MinCycles": "6", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -3755,11 +3912,11 @@
         <v>ADC.zp,X</v>
       </c>
       <c r="I68" t="str">
-        <f>_xlfn.CONCAT("""",A68, """ : { ""OpCode"" : """, B68, """, ""AddressingMode"": """,C68, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"ADC [d8],X" : { "OpCode" : "0x75", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"ADC.zp,X" : { "OpCode" : "0x75", "AddressingMode": "ZeroPageX", "Format": "ADC [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -3790,11 +3947,11 @@
         <v>ROR.zp,X</v>
       </c>
       <c r="I69" t="str">
-        <f>_xlfn.CONCAT("""",A69, """ : { ""OpCode"" : """, B69, """, ""AddressingMode"": """,C69, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"ROR [d8],X" : { "OpCode" : "0x76", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"ROR.zp,X" : { "OpCode" : "0x76", "AddressingMode": "ZeroPageX", "Format": "ROR [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -3822,11 +3979,11 @@
         <v>SEI</v>
       </c>
       <c r="I70" t="str">
-        <f>_xlfn.CONCAT("""",A70, """ : { ""OpCode"" : """, B70, """, ""AddressingMode"": """,C70, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"SEI" : { "OpCode" : "0x78", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"SEI" : { "OpCode" : "0x78", "AddressingMode": "Implied", "Format": "SEI", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -3857,11 +4014,11 @@
         <v>ADC,Y</v>
       </c>
       <c r="I71" t="str">
-        <f>_xlfn.CONCAT("""",A71, """ : { ""OpCode"" : """, B71, """, ""AddressingMode"": """,C71, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"ADC [a16],Y" : { "OpCode" : "0x79", "AddressingMode": "AbsoluteY" },</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"ADC,Y" : { "OpCode" : "0x79", "AddressingMode": "AbsoluteY", "Format": "ADC [a16],Y", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -3892,11 +4049,11 @@
         <v>ADC,X</v>
       </c>
       <c r="I72" t="str">
-        <f>_xlfn.CONCAT("""",A72, """ : { ""OpCode"" : """, B72, """, ""AddressingMode"": """,C72, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"ADC [a16],X" : { "OpCode" : "0x7d", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"ADC,X" : { "OpCode" : "0x7d", "AddressingMode": "AbsoluteX", "Format": "ADC [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -3927,11 +4084,11 @@
         <v>ROR,X</v>
       </c>
       <c r="I73" t="str">
-        <f>_xlfn.CONCAT("""",A73, """ : { ""OpCode"" : """, B73, """, ""AddressingMode"": """,C73, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"ROR [a16],X" : { "OpCode" : "0x7e", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"ROR,X" : { "OpCode" : "0x7e", "AddressingMode": "AbsoluteX", "Format": "ROR [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -3962,11 +4119,11 @@
         <v>STA.i,X</v>
       </c>
       <c r="I74" t="str">
-        <f>_xlfn.CONCAT("""",A74, """ : { ""OpCode"" : """, B74, """, ""AddressingMode"": """,C74, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STA ([d8],X)" : { "OpCode" : "0x81", "AddressingMode": "IndexedIndirectX" },</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STA.i,X" : { "OpCode" : "0x81", "AddressingMode": "IndexedIndirectX", "Format": "STA ([d8],X)", "Bytes": "1", "MinCycles": "5", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -3997,11 +4154,11 @@
         <v>STY.zp</v>
       </c>
       <c r="I75" t="str">
-        <f>_xlfn.CONCAT("""",A75, """ : { ""OpCode"" : """, B75, """, ""AddressingMode"": """,C75, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STY [d8]" : { "OpCode" : "0x84", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STY.zp" : { "OpCode" : "0x84", "AddressingMode": "ZeroPage", "Format": "STY [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -4032,11 +4189,11 @@
         <v>STA.zp</v>
       </c>
       <c r="I76" t="str">
-        <f>_xlfn.CONCAT("""",A76, """ : { ""OpCode"" : """, B76, """, ""AddressingMode"": """,C76, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STA [d8]" : { "OpCode" : "0x85", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STA.zp" : { "OpCode" : "0x85", "AddressingMode": "ZeroPage", "Format": "STA [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -4067,11 +4224,11 @@
         <v>STX.zp</v>
       </c>
       <c r="I77" t="str">
-        <f>_xlfn.CONCAT("""",A77, """ : { ""OpCode"" : """, B77, """, ""AddressingMode"": """,C77, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STX [d8]" : { "OpCode" : "0x86", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STX.zp" : { "OpCode" : "0x86", "AddressingMode": "ZeroPage", "Format": "STX [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -4099,11 +4256,11 @@
         <v>DEY</v>
       </c>
       <c r="I78" t="str">
-        <f>_xlfn.CONCAT("""",A78, """ : { ""OpCode"" : """, B78, """, ""AddressingMode"": """,C78, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"DEY" : { "OpCode" : "0x88", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"DEY" : { "OpCode" : "0x88", "AddressingMode": "Implied", "Format": "DEY", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -4131,11 +4288,11 @@
         <v>TXA</v>
       </c>
       <c r="I79" t="str">
-        <f>_xlfn.CONCAT("""",A79, """ : { ""OpCode"" : """, B79, """, ""AddressingMode"": """,C79, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"TXA" : { "OpCode" : "0x8a", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"TXA" : { "OpCode" : "0x8a", "AddressingMode": "Implied", "Format": "TXA", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -4163,11 +4320,11 @@
         <v>STY</v>
       </c>
       <c r="I80" t="str">
-        <f>_xlfn.CONCAT("""",A80, """ : { ""OpCode"" : """, B80, """, ""AddressingMode"": """,C80, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STY [a16]" : { "OpCode" : "0x8c", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STY" : { "OpCode" : "0x8c", "AddressingMode": "Absolute", "Format": "STY [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -4195,11 +4352,11 @@
         <v>STA</v>
       </c>
       <c r="I81" t="str">
-        <f>_xlfn.CONCAT("""",A81, """ : { ""OpCode"" : """, B81, """, ""AddressingMode"": """,C81, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STA [a16]" : { "OpCode" : "0x8d", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STA" : { "OpCode" : "0x8d", "AddressingMode": "Absolute", "Format": "STA [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -4227,11 +4384,11 @@
         <v>STX</v>
       </c>
       <c r="I82" t="str">
-        <f>_xlfn.CONCAT("""",A82, """ : { ""OpCode"" : """, B82, """, ""AddressingMode"": """,C82, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STX [a16]" : { "OpCode" : "0x8e", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STX" : { "OpCode" : "0x8e", "AddressingMode": "Absolute", "Format": "STX [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -4259,11 +4416,11 @@
         <v>BCC</v>
       </c>
       <c r="I83" t="str">
-        <f>_xlfn.CONCAT("""",A83, """ : { ""OpCode"" : """, B83, """, ""AddressingMode"": """,C83, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"BCC [r8]" : { "OpCode" : "0x90", "AddressingMode": "Relative" },</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"BCC" : { "OpCode" : "0x90", "AddressingMode": "Relative", "Format": "BCC [r8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -4294,11 +4451,11 @@
         <v>STA.i,Y</v>
       </c>
       <c r="I84" t="str">
-        <f>_xlfn.CONCAT("""",A84, """ : { ""OpCode"" : """, B84, """, ""AddressingMode"": """,C84, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STA ([d8]),Y" : { "OpCode" : "0x91", "AddressingMode": "IndexedIndirectY" },</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STA.i,Y" : { "OpCode" : "0x91", "AddressingMode": "IndexedIndirectY", "Format": "STA ([d8]),Y", "Bytes": "1", "MinCycles": "6", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -4329,11 +4486,11 @@
         <v>STY.zp,X</v>
       </c>
       <c r="I85" t="str">
-        <f>_xlfn.CONCAT("""",A85, """ : { ""OpCode"" : """, B85, """, ""AddressingMode"": """,C85, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STY [d8],X" : { "OpCode" : "0x94", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STY.zp,X" : { "OpCode" : "0x94", "AddressingMode": "ZeroPageX", "Format": "STY [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -4364,11 +4521,11 @@
         <v>STA.zp,X</v>
       </c>
       <c r="I86" t="str">
-        <f>_xlfn.CONCAT("""",A86, """ : { ""OpCode"" : """, B86, """, ""AddressingMode"": """,C86, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STA [d8],X" : { "OpCode" : "0x95", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STA.zp,X" : { "OpCode" : "0x95", "AddressingMode": "ZeroPageX", "Format": "STA [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -4399,11 +4556,11 @@
         <v>STX.zp,Y</v>
       </c>
       <c r="I87" t="str">
-        <f>_xlfn.CONCAT("""",A87, """ : { ""OpCode"" : """, B87, """, ""AddressingMode"": """,C87, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STX [d8],Y" : { "OpCode" : "0x96", "AddressingMode": "ZeroPageY" },</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STX.zp,Y" : { "OpCode" : "0x96", "AddressingMode": "ZeroPageY", "Format": "STX [d8],Y", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -4431,11 +4588,11 @@
         <v>TYA</v>
       </c>
       <c r="I88" t="str">
-        <f>_xlfn.CONCAT("""",A88, """ : { ""OpCode"" : """, B88, """, ""AddressingMode"": """,C88, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"TYA" : { "OpCode" : "0x98", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"TYA" : { "OpCode" : "0x98", "AddressingMode": "Implied", "Format": "TYA", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -4466,11 +4623,11 @@
         <v>STA,Y</v>
       </c>
       <c r="I89" t="str">
-        <f>_xlfn.CONCAT("""",A89, """ : { ""OpCode"" : """, B89, """, ""AddressingMode"": """,C89, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STA [a16],Y" : { "OpCode" : "0x99", "AddressingMode": "AbsoluteY" },</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STA,Y" : { "OpCode" : "0x99", "AddressingMode": "AbsoluteY", "Format": "STA [a16],Y", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -4498,11 +4655,11 @@
         <v>TXS</v>
       </c>
       <c r="I90" t="str">
-        <f>_xlfn.CONCAT("""",A90, """ : { ""OpCode"" : """, B90, """, ""AddressingMode"": """,C90, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"TXS" : { "OpCode" : "0x9a", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"TXS" : { "OpCode" : "0x9a", "AddressingMode": "Implied", "Format": "TXS", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -4533,11 +4690,11 @@
         <v>STA,X</v>
       </c>
       <c r="I91" t="str">
-        <f>_xlfn.CONCAT("""",A91, """ : { ""OpCode"" : """, B91, """, ""AddressingMode"": """,C91, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"STA [a16],X" : { "OpCode" : "0x9d", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"STA,X" : { "OpCode" : "0x9d", "AddressingMode": "AbsoluteX", "Format": "STA [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -4568,11 +4725,11 @@
         <v>LDY.#</v>
       </c>
       <c r="I92" t="str">
-        <f>_xlfn.CONCAT("""",A92, """ : { ""OpCode"" : """, B92, """, ""AddressingMode"": """,C92, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"LDY #[d8]" : { "OpCode" : "0xa0", "AddressingMode": "Immediate" },</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDY.#" : { "OpCode" : "0xa0", "AddressingMode": "Immediate", "Format": "LDY #[d8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -4603,11 +4760,11 @@
         <v>LDA.i,X</v>
       </c>
       <c r="I93" t="str">
-        <f>_xlfn.CONCAT("""",A93, """ : { ""OpCode"" : """, B93, """, ""AddressingMode"": """,C93, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"LDA ([d8],X)" : { "OpCode" : "0xa1", "AddressingMode": "IndexedIndirectX" },</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDA.i,X" : { "OpCode" : "0xa1", "AddressingMode": "IndexedIndirectX", "Format": "LDA ([d8],X)", "Bytes": "1", "MinCycles": "5", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -4638,11 +4795,11 @@
         <v>LDX.#</v>
       </c>
       <c r="I94" t="str">
-        <f>_xlfn.CONCAT("""",A94, """ : { ""OpCode"" : """, B94, """, ""AddressingMode"": """,C94, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"LDX #[d8]" : { "OpCode" : "0xa2", "AddressingMode": "Immediate" },</v>
       </c>
       <c r="J94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDX.#" : { "OpCode" : "0xa2", "AddressingMode": "Immediate", "Format": "LDX #[d8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -4673,11 +4830,11 @@
         <v>LDY.zp</v>
       </c>
       <c r="I95" t="str">
-        <f>_xlfn.CONCAT("""",A95, """ : { ""OpCode"" : """, B95, """, ""AddressingMode"": """,C95, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"LDY [d8]" : { "OpCode" : "0xa4", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDY.zp" : { "OpCode" : "0xa4", "AddressingMode": "ZeroPage", "Format": "LDY [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -4708,11 +4865,11 @@
         <v>LDA.zp</v>
       </c>
       <c r="I96" t="str">
-        <f>_xlfn.CONCAT("""",A96, """ : { ""OpCode"" : """, B96, """, ""AddressingMode"": """,C96, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"LDA [d8]" : { "OpCode" : "0xa5", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDA.zp" : { "OpCode" : "0xa5", "AddressingMode": "ZeroPage", "Format": "LDA [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -4743,11 +4900,11 @@
         <v>LDX.zp</v>
       </c>
       <c r="I97" t="str">
-        <f>_xlfn.CONCAT("""",A97, """ : { ""OpCode"" : """, B97, """, ""AddressingMode"": """,C97, """ }," )</f>
+        <f t="shared" si="3"/>
         <v>"LDX [d8]" : { "OpCode" : "0xa6", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDX.zp" : { "OpCode" : "0xa6", "AddressingMode": "ZeroPage", "Format": "LDX [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -4775,11 +4932,11 @@
         <v>TAY</v>
       </c>
       <c r="I98" t="str">
-        <f>_xlfn.CONCAT("""",A98, """ : { ""OpCode"" : """, B98, """, ""AddressingMode"": """,C98, """ }," )</f>
+        <f t="shared" ref="I98:I129" si="5">_xlfn.CONCAT("""",A98, """ : { ""OpCode"" : """, B98, """, ""AddressingMode"": """,C98, """ }," )</f>
         <v>"TAY" : { "OpCode" : "0xa8", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"TAY" : { "OpCode" : "0xa8", "AddressingMode": "Implied", "Format": "TAY", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -4810,11 +4967,11 @@
         <v>LDA.#</v>
       </c>
       <c r="I99" t="str">
-        <f>_xlfn.CONCAT("""",A99, """ : { ""OpCode"" : """, B99, """, ""AddressingMode"": """,C99, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"LDA #[d8]" : { "OpCode" : "0xa9", "AddressingMode": "Immediate" },</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDA.#" : { "OpCode" : "0xa9", "AddressingMode": "Immediate", "Format": "LDA #[d8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -4842,11 +4999,11 @@
         <v>TAX</v>
       </c>
       <c r="I100" t="str">
-        <f>_xlfn.CONCAT("""",A100, """ : { ""OpCode"" : """, B100, """, ""AddressingMode"": """,C100, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"TAX" : { "OpCode" : "0xaa", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"TAX" : { "OpCode" : "0xaa", "AddressingMode": "Implied", "Format": "TAX", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -4874,11 +5031,11 @@
         <v>LDY</v>
       </c>
       <c r="I101" t="str">
-        <f>_xlfn.CONCAT("""",A101, """ : { ""OpCode"" : """, B101, """, ""AddressingMode"": """,C101, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"LDY [a16]" : { "OpCode" : "0xac", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDY" : { "OpCode" : "0xac", "AddressingMode": "Absolute", "Format": "LDY [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -4906,11 +5063,11 @@
         <v>LDA</v>
       </c>
       <c r="I102" t="str">
-        <f>_xlfn.CONCAT("""",A102, """ : { ""OpCode"" : """, B102, """, ""AddressingMode"": """,C102, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"LDA [a16]" : { "OpCode" : "0xad", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDA" : { "OpCode" : "0xad", "AddressingMode": "Absolute", "Format": "LDA [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -4938,11 +5095,11 @@
         <v>LDX</v>
       </c>
       <c r="I103" t="str">
-        <f>_xlfn.CONCAT("""",A103, """ : { ""OpCode"" : """, B103, """, ""AddressingMode"": """,C103, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"LDX [a16]" : { "OpCode" : "0xae", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDX" : { "OpCode" : "0xae", "AddressingMode": "Absolute", "Format": "LDX [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -4970,11 +5127,11 @@
         <v>BCS</v>
       </c>
       <c r="I104" t="str">
-        <f>_xlfn.CONCAT("""",A104, """ : { ""OpCode"" : """, B104, """, ""AddressingMode"": """,C104, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"BCS [r8]" : { "OpCode" : "0xb0", "AddressingMode": "Relative" },</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"BCS" : { "OpCode" : "0xb0", "AddressingMode": "Relative", "Format": "BCS [r8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -5005,11 +5162,11 @@
         <v>LDA.i,Y</v>
       </c>
       <c r="I105" t="str">
-        <f>_xlfn.CONCAT("""",A105, """ : { ""OpCode"" : """, B105, """, ""AddressingMode"": """,C105, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"LDA ([d8]),Y" : { "OpCode" : "0xb1", "AddressingMode": "IndexedIndirectY" },</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDA.i,Y" : { "OpCode" : "0xb1", "AddressingMode": "IndexedIndirectY", "Format": "LDA ([d8]),Y", "Bytes": "1", "MinCycles": "6", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -5040,11 +5197,11 @@
         <v>LDY.zp,X</v>
       </c>
       <c r="I106" t="str">
-        <f>_xlfn.CONCAT("""",A106, """ : { ""OpCode"" : """, B106, """, ""AddressingMode"": """,C106, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"LDY [d8],X" : { "OpCode" : "0xb4", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDY.zp,X" : { "OpCode" : "0xb4", "AddressingMode": "ZeroPageX", "Format": "LDY [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -5075,11 +5232,11 @@
         <v>LDA.zp,X</v>
       </c>
       <c r="I107" t="str">
-        <f>_xlfn.CONCAT("""",A107, """ : { ""OpCode"" : """, B107, """, ""AddressingMode"": """,C107, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"LDA [d8],X" : { "OpCode" : "0xb5", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDA.zp,X" : { "OpCode" : "0xb5", "AddressingMode": "ZeroPageX", "Format": "LDA [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -5110,11 +5267,11 @@
         <v>LDX.zp,Y</v>
       </c>
       <c r="I108" t="str">
-        <f>_xlfn.CONCAT("""",A108, """ : { ""OpCode"" : """, B108, """, ""AddressingMode"": """,C108, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"LDX [d8],Y" : { "OpCode" : "0xb6", "AddressingMode": "ZeroPageY" },</v>
       </c>
       <c r="J108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDX.zp,Y" : { "OpCode" : "0xb6", "AddressingMode": "ZeroPageY", "Format": "LDX [d8],Y", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -5142,11 +5299,11 @@
         <v>CLV</v>
       </c>
       <c r="I109" t="str">
-        <f>_xlfn.CONCAT("""",A109, """ : { ""OpCode"" : """, B109, """, ""AddressingMode"": """,C109, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"CLV" : { "OpCode" : "0xb8", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"CLV" : { "OpCode" : "0xb8", "AddressingMode": "Implied", "Format": "CLV", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -5177,11 +5334,11 @@
         <v>LDA,Y</v>
       </c>
       <c r="I110" t="str">
-        <f>_xlfn.CONCAT("""",A110, """ : { ""OpCode"" : """, B110, """, ""AddressingMode"": """,C110, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"LDA [a16],Y" : { "OpCode" : "0xb9", "AddressingMode": "AbsoluteY" },</v>
       </c>
       <c r="J110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDA,Y" : { "OpCode" : "0xb9", "AddressingMode": "AbsoluteY", "Format": "LDA [a16],Y", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -5209,11 +5366,11 @@
         <v>TSX</v>
       </c>
       <c r="I111" t="str">
-        <f>_xlfn.CONCAT("""",A111, """ : { ""OpCode"" : """, B111, """, ""AddressingMode"": """,C111, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"TSX" : { "OpCode" : "0xba", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"TSX" : { "OpCode" : "0xba", "AddressingMode": "Implied", "Format": "TSX", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -5244,11 +5401,11 @@
         <v>LDY,X</v>
       </c>
       <c r="I112" t="str">
-        <f>_xlfn.CONCAT("""",A112, """ : { ""OpCode"" : """, B112, """, ""AddressingMode"": """,C112, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"LDY [a16],X" : { "OpCode" : "0xbc", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDY,X" : { "OpCode" : "0xbc", "AddressingMode": "AbsoluteX", "Format": "LDY [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -5279,11 +5436,11 @@
         <v>LDA,X</v>
       </c>
       <c r="I113" t="str">
-        <f>_xlfn.CONCAT("""",A113, """ : { ""OpCode"" : """, B113, """, ""AddressingMode"": """,C113, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"LDA [a16],X" : { "OpCode" : "0xbd", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDA,X" : { "OpCode" : "0xbd", "AddressingMode": "AbsoluteX", "Format": "LDA [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -5314,11 +5471,11 @@
         <v>LDX,Y</v>
       </c>
       <c r="I114" t="str">
-        <f>_xlfn.CONCAT("""",A114, """ : { ""OpCode"" : """, B114, """, ""AddressingMode"": """,C114, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"LDX [a16],Y" : { "OpCode" : "0xbe", "AddressingMode": "AbsoluteY" },</v>
       </c>
       <c r="J114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"LDX,Y" : { "OpCode" : "0xbe", "AddressingMode": "AbsoluteY", "Format": "LDX [a16],Y", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -5349,11 +5506,11 @@
         <v>CPY.#</v>
       </c>
       <c r="I115" t="str">
-        <f>_xlfn.CONCAT("""",A115, """ : { ""OpCode"" : """, B115, """, ""AddressingMode"": """,C115, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"CPY #[d8]" : { "OpCode" : "0xc0", "AddressingMode": "Immediate" },</v>
       </c>
       <c r="J115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"CPY.#" : { "OpCode" : "0xc0", "AddressingMode": "Immediate", "Format": "CPY #[d8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -5384,11 +5541,11 @@
         <v>CMP.i,X</v>
       </c>
       <c r="I116" t="str">
-        <f>_xlfn.CONCAT("""",A116, """ : { ""OpCode"" : """, B116, """, ""AddressingMode"": """,C116, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"CMP ([d8],X)" : { "OpCode" : "0xc1", "AddressingMode": "IndexedIndirectX" },</v>
       </c>
       <c r="J116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"CMP.i,X" : { "OpCode" : "0xc1", "AddressingMode": "IndexedIndirectX", "Format": "CMP ([d8],X)", "Bytes": "1", "MinCycles": "5", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -5419,11 +5576,11 @@
         <v>CPY.zp</v>
       </c>
       <c r="I117" t="str">
-        <f>_xlfn.CONCAT("""",A117, """ : { ""OpCode"" : """, B117, """, ""AddressingMode"": """,C117, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"CPY [d8]" : { "OpCode" : "0xc4", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"CPY.zp" : { "OpCode" : "0xc4", "AddressingMode": "ZeroPage", "Format": "CPY [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -5454,11 +5611,11 @@
         <v>CMP.zp</v>
       </c>
       <c r="I118" t="str">
-        <f>_xlfn.CONCAT("""",A118, """ : { ""OpCode"" : """, B118, """, ""AddressingMode"": """,C118, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"CMP [d8]" : { "OpCode" : "0xc5", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"CMP.zp" : { "OpCode" : "0xc5", "AddressingMode": "ZeroPage", "Format": "CMP [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -5489,11 +5646,11 @@
         <v>DEC.zp</v>
       </c>
       <c r="I119" t="str">
-        <f>_xlfn.CONCAT("""",A119, """ : { ""OpCode"" : """, B119, """, ""AddressingMode"": """,C119, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"DEC [d8]" : { "OpCode" : "0xc6", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"DEC.zp" : { "OpCode" : "0xc6", "AddressingMode": "ZeroPage", "Format": "DEC [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -5521,11 +5678,11 @@
         <v>INY</v>
       </c>
       <c r="I120" t="str">
-        <f>_xlfn.CONCAT("""",A120, """ : { ""OpCode"" : """, B120, """, ""AddressingMode"": """,C120, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"INY" : { "OpCode" : "0xc8", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"INY" : { "OpCode" : "0xc8", "AddressingMode": "Implied", "Format": "INY", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -5556,11 +5713,11 @@
         <v>CMP.#</v>
       </c>
       <c r="I121" t="str">
-        <f>_xlfn.CONCAT("""",A121, """ : { ""OpCode"" : """, B121, """, ""AddressingMode"": """,C121, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"CMP #[d8]" : { "OpCode" : "0xc9", "AddressingMode": "Immediate" },</v>
       </c>
       <c r="J121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"CMP.#" : { "OpCode" : "0xc9", "AddressingMode": "Immediate", "Format": "CMP #[d8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -5588,11 +5745,11 @@
         <v>DEX</v>
       </c>
       <c r="I122" t="str">
-        <f>_xlfn.CONCAT("""",A122, """ : { ""OpCode"" : """, B122, """, ""AddressingMode"": """,C122, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"DEX" : { "OpCode" : "0xca", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"DEX" : { "OpCode" : "0xca", "AddressingMode": "Implied", "Format": "DEX", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -5620,11 +5777,11 @@
         <v>CPY</v>
       </c>
       <c r="I123" t="str">
-        <f>_xlfn.CONCAT("""",A123, """ : { ""OpCode"" : """, B123, """, ""AddressingMode"": """,C123, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"CPY [a16]" : { "OpCode" : "0xcc", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"CPY" : { "OpCode" : "0xcc", "AddressingMode": "Absolute", "Format": "CPY [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -5652,11 +5809,11 @@
         <v>CMP</v>
       </c>
       <c r="I124" t="str">
-        <f>_xlfn.CONCAT("""",A124, """ : { ""OpCode"" : """, B124, """, ""AddressingMode"": """,C124, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"CMP [a16]" : { "OpCode" : "0xcd", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"CMP" : { "OpCode" : "0xcd", "AddressingMode": "Absolute", "Format": "CMP [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -5684,11 +5841,11 @@
         <v>DEC</v>
       </c>
       <c r="I125" t="str">
-        <f>_xlfn.CONCAT("""",A125, """ : { ""OpCode"" : """, B125, """, ""AddressingMode"": """,C125, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"DEC [a16]" : { "OpCode" : "0xce", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"DEC" : { "OpCode" : "0xce", "AddressingMode": "Absolute", "Format": "DEC [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -5716,11 +5873,11 @@
         <v>BNE</v>
       </c>
       <c r="I126" t="str">
-        <f>_xlfn.CONCAT("""",A126, """ : { ""OpCode"" : """, B126, """, ""AddressingMode"": """,C126, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"BNE [r8]" : { "OpCode" : "0xd0", "AddressingMode": "Relative" },</v>
       </c>
       <c r="J126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"BNE" : { "OpCode" : "0xd0", "AddressingMode": "Relative", "Format": "BNE [r8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -5751,11 +5908,11 @@
         <v>CMP.i,Y</v>
       </c>
       <c r="I127" t="str">
-        <f>_xlfn.CONCAT("""",A127, """ : { ""OpCode"" : """, B127, """, ""AddressingMode"": """,C127, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"CMP ([d8]),Y" : { "OpCode" : "0xd1", "AddressingMode": "IndexedIndirectY" },</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"CMP.i,Y" : { "OpCode" : "0xd1", "AddressingMode": "IndexedIndirectY", "Format": "CMP ([d8]),Y", "Bytes": "1", "MinCycles": "6", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -5786,11 +5943,11 @@
         <v>CMP.zp,X</v>
       </c>
       <c r="I128" t="str">
-        <f>_xlfn.CONCAT("""",A128, """ : { ""OpCode"" : """, B128, """, ""AddressingMode"": """,C128, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"CMP [d8],X" : { "OpCode" : "0xd5", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"CMP.zp,X" : { "OpCode" : "0xd5", "AddressingMode": "ZeroPageX", "Format": "CMP [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -5821,11 +5978,11 @@
         <v>DEC.zp,X</v>
       </c>
       <c r="I129" t="str">
-        <f>_xlfn.CONCAT("""",A129, """ : { ""OpCode"" : """, B129, """, ""AddressingMode"": """,C129, """ }," )</f>
+        <f t="shared" si="5"/>
         <v>"DEC [d8],X" : { "OpCode" : "0xd6", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>"DEC.zp,X" : { "OpCode" : "0xd6", "AddressingMode": "ZeroPageX", "Format": "DEC [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -5853,11 +6010,11 @@
         <v>CLD</v>
       </c>
       <c r="I130" t="str">
-        <f>_xlfn.CONCAT("""",A130, """ : { ""OpCode"" : """, B130, """, ""AddressingMode"": """,C130, """ }," )</f>
+        <f t="shared" ref="I130:I158" si="6">_xlfn.CONCAT("""",A130, """ : { ""OpCode"" : """, B130, """, ""AddressingMode"": """,C130, """ }," )</f>
         <v>"CLD" : { "OpCode" : "0xd8", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J130" t="str">
-        <f t="shared" ref="J130:J156" si="2">_xlfn.CONCAT("""",H130,""" : { ""OpCode"" : """,B130,""", ""AddressingMode"": """,C130,""", ""Format"": """,A130,""", ""Bytes"": """,D130,""", ""MinCycles"": """,E130,""", ""MaxCycles"": """,F130,""" },")</f>
+        <f t="shared" ref="J130:J156" si="7">_xlfn.CONCAT("""",H130,""" : { ""OpCode"" : """,B130,""", ""AddressingMode"": """,C130,""", ""Format"": """,A130,""", ""Bytes"": """,D130,""", ""MinCycles"": """,E130,""", ""MaxCycles"": """,F130,""" },")</f>
         <v>"CLD" : { "OpCode" : "0xd8", "AddressingMode": "Implied", "Format": "CLD", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -5888,11 +6045,11 @@
         <v>CMP,Y</v>
       </c>
       <c r="I131" t="str">
-        <f>_xlfn.CONCAT("""",A131, """ : { ""OpCode"" : """, B131, """, ""AddressingMode"": """,C131, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"CMP [a16],Y" : { "OpCode" : "0xd9", "AddressingMode": "AbsoluteY" },</v>
       </c>
       <c r="J131" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"CMP,Y" : { "OpCode" : "0xd9", "AddressingMode": "AbsoluteY", "Format": "CMP [a16],Y", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -5923,11 +6080,11 @@
         <v>CMP,X</v>
       </c>
       <c r="I132" t="str">
-        <f>_xlfn.CONCAT("""",A132, """ : { ""OpCode"" : """, B132, """, ""AddressingMode"": """,C132, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"CMP [a16],X" : { "OpCode" : "0xdd", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"CMP,X" : { "OpCode" : "0xdd", "AddressingMode": "AbsoluteX", "Format": "CMP [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -5958,11 +6115,11 @@
         <v>DEC,X</v>
       </c>
       <c r="I133" t="str">
-        <f>_xlfn.CONCAT("""",A133, """ : { ""OpCode"" : """, B133, """, ""AddressingMode"": """,C133, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"DEC [a16],X" : { "OpCode" : "0xde", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J133" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"DEC,X" : { "OpCode" : "0xde", "AddressingMode": "AbsoluteX", "Format": "DEC [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -5993,11 +6150,11 @@
         <v>CPX.#</v>
       </c>
       <c r="I134" t="str">
-        <f>_xlfn.CONCAT("""",A134, """ : { ""OpCode"" : """, B134, """, ""AddressingMode"": """,C134, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"CPX #[d8]" : { "OpCode" : "0xe0", "AddressingMode": "Immediate" },</v>
       </c>
       <c r="J134" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"CPX.#" : { "OpCode" : "0xe0", "AddressingMode": "Immediate", "Format": "CPX #[d8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -6028,11 +6185,11 @@
         <v>SBC.i,X</v>
       </c>
       <c r="I135" t="str">
-        <f>_xlfn.CONCAT("""",A135, """ : { ""OpCode"" : """, B135, """, ""AddressingMode"": """,C135, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"SBC ([d8],X)" : { "OpCode" : "0xe1", "AddressingMode": "IndexedIndirectX" },</v>
       </c>
       <c r="J135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"SBC.i,X" : { "OpCode" : "0xe1", "AddressingMode": "IndexedIndirectX", "Format": "SBC ([d8],X)", "Bytes": "1", "MinCycles": "5", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -6063,11 +6220,11 @@
         <v>CPX.zp</v>
       </c>
       <c r="I136" t="str">
-        <f>_xlfn.CONCAT("""",A136, """ : { ""OpCode"" : """, B136, """, ""AddressingMode"": """,C136, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"CPX [d8]" : { "OpCode" : "0xe4", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"CPX.zp" : { "OpCode" : "0xe4", "AddressingMode": "ZeroPage", "Format": "CPX [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -6098,11 +6255,11 @@
         <v>SBC.zp</v>
       </c>
       <c r="I137" t="str">
-        <f>_xlfn.CONCAT("""",A137, """ : { ""OpCode"" : """, B137, """, ""AddressingMode"": """,C137, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"SBC [d8]" : { "OpCode" : "0xe5", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"SBC.zp" : { "OpCode" : "0xe5", "AddressingMode": "ZeroPage", "Format": "SBC [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -6133,11 +6290,11 @@
         <v>INC.zp</v>
       </c>
       <c r="I138" t="str">
-        <f>_xlfn.CONCAT("""",A138, """ : { ""OpCode"" : """, B138, """, ""AddressingMode"": """,C138, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"INC [d8]" : { "OpCode" : "0xe6", "AddressingMode": "ZeroPage" },</v>
       </c>
       <c r="J138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"INC.zp" : { "OpCode" : "0xe6", "AddressingMode": "ZeroPage", "Format": "INC [d8]", "Bytes": "1", "MinCycles": "3", "MaxCycles": "3" },</v>
       </c>
     </row>
@@ -6165,11 +6322,11 @@
         <v>INX</v>
       </c>
       <c r="I139" t="str">
-        <f>_xlfn.CONCAT("""",A139, """ : { ""OpCode"" : """, B139, """, ""AddressingMode"": """,C139, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"INX" : { "OpCode" : "0xe8", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"INX" : { "OpCode" : "0xe8", "AddressingMode": "Implied", "Format": "INX", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -6200,11 +6357,11 @@
         <v>SBC.#</v>
       </c>
       <c r="I140" t="str">
-        <f>_xlfn.CONCAT("""",A140, """ : { ""OpCode"" : """, B140, """, ""AddressingMode"": """,C140, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"SBC #[d8]" : { "OpCode" : "0xe9", "AddressingMode": "Immediate" },</v>
       </c>
       <c r="J140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"SBC.#" : { "OpCode" : "0xe9", "AddressingMode": "Immediate", "Format": "SBC #[d8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -6232,11 +6389,11 @@
         <v>NOP</v>
       </c>
       <c r="I141" t="str">
-        <f>_xlfn.CONCAT("""",A141, """ : { ""OpCode"" : """, B141, """, ""AddressingMode"": """,C141, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"NOP" : { "OpCode" : "0xea", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"NOP" : { "OpCode" : "0xea", "AddressingMode": "Implied", "Format": "NOP", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -6264,11 +6421,11 @@
         <v>CPX</v>
       </c>
       <c r="I142" t="str">
-        <f>_xlfn.CONCAT("""",A142, """ : { ""OpCode"" : """, B142, """, ""AddressingMode"": """,C142, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"CPX [a16]" : { "OpCode" : "0xec", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"CPX" : { "OpCode" : "0xec", "AddressingMode": "Absolute", "Format": "CPX [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -6296,11 +6453,11 @@
         <v>SBC</v>
       </c>
       <c r="I143" t="str">
-        <f>_xlfn.CONCAT("""",A143, """ : { ""OpCode"" : """, B143, """, ""AddressingMode"": """,C143, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"SBC [a16]" : { "OpCode" : "0xed", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"SBC" : { "OpCode" : "0xed", "AddressingMode": "Absolute", "Format": "SBC [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -6328,11 +6485,11 @@
         <v>INC</v>
       </c>
       <c r="I144" t="str">
-        <f>_xlfn.CONCAT("""",A144, """ : { ""OpCode"" : """, B144, """, ""AddressingMode"": """,C144, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"INC [a16]" : { "OpCode" : "0xee", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"INC" : { "OpCode" : "0xee", "AddressingMode": "Absolute", "Format": "INC [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -6360,11 +6517,11 @@
         <v>BEQ</v>
       </c>
       <c r="I145" t="str">
-        <f>_xlfn.CONCAT("""",A145, """ : { ""OpCode"" : """, B145, """, ""AddressingMode"": """,C145, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"BEQ [r8]" : { "OpCode" : "0xf0", "AddressingMode": "Relative" },</v>
       </c>
       <c r="J145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"BEQ" : { "OpCode" : "0xf0", "AddressingMode": "Relative", "Format": "BEQ [r8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -6395,11 +6552,11 @@
         <v>SBC.i,Y</v>
       </c>
       <c r="I146" t="str">
-        <f>_xlfn.CONCAT("""",A146, """ : { ""OpCode"" : """, B146, """, ""AddressingMode"": """,C146, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"SBC ([d8]),Y" : { "OpCode" : "0xf1", "AddressingMode": "IndexedIndirectY" },</v>
       </c>
       <c r="J146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"SBC.i,Y" : { "OpCode" : "0xf1", "AddressingMode": "IndexedIndirectY", "Format": "SBC ([d8]),Y", "Bytes": "1", "MinCycles": "6", "MaxCycles": "6" },</v>
       </c>
     </row>
@@ -6430,11 +6587,11 @@
         <v>SBC.zp,X</v>
       </c>
       <c r="I147" t="str">
-        <f>_xlfn.CONCAT("""",A147, """ : { ""OpCode"" : """, B147, """, ""AddressingMode"": """,C147, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"SBC [d8],X" : { "OpCode" : "0xf5", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"SBC.zp,X" : { "OpCode" : "0xf5", "AddressingMode": "ZeroPageX", "Format": "SBC [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -6465,11 +6622,11 @@
         <v>INC.zp,X</v>
       </c>
       <c r="I148" t="str">
-        <f>_xlfn.CONCAT("""",A148, """ : { ""OpCode"" : """, B148, """, ""AddressingMode"": """,C148, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"INC [d8],X" : { "OpCode" : "0xf6", "AddressingMode": "ZeroPageX" },</v>
       </c>
       <c r="J148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"INC.zp,X" : { "OpCode" : "0xf6", "AddressingMode": "ZeroPageX", "Format": "INC [d8],X", "Bytes": "1", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -6497,11 +6654,11 @@
         <v>SED</v>
       </c>
       <c r="I149" t="str">
-        <f>_xlfn.CONCAT("""",A149, """ : { ""OpCode"" : """, B149, """, ""AddressingMode"": """,C149, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"SED" : { "OpCode" : "0xf8", "AddressingMode": "Implied" },</v>
       </c>
       <c r="J149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"SED" : { "OpCode" : "0xf8", "AddressingMode": "Implied", "Format": "SED", "Bytes": "0", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -6532,11 +6689,11 @@
         <v>SBC,Y</v>
       </c>
       <c r="I150" t="str">
-        <f>_xlfn.CONCAT("""",A150, """ : { ""OpCode"" : """, B150, """, ""AddressingMode"": """,C150, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"SBC [a16],Y" : { "OpCode" : "0xf9", "AddressingMode": "AbsoluteY" },</v>
       </c>
       <c r="J150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"SBC,Y" : { "OpCode" : "0xf9", "AddressingMode": "AbsoluteY", "Format": "SBC [a16],Y", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -6567,11 +6724,11 @@
         <v>SBC,X</v>
       </c>
       <c r="I151" t="str">
-        <f>_xlfn.CONCAT("""",A151, """ : { ""OpCode"" : """, B151, """, ""AddressingMode"": """,C151, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"SBC [a16],X" : { "OpCode" : "0xfd", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"SBC,X" : { "OpCode" : "0xfd", "AddressingMode": "AbsoluteX", "Format": "SBC [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -6602,11 +6759,11 @@
         <v>INC,X</v>
       </c>
       <c r="I152" t="str">
-        <f>_xlfn.CONCAT("""",A152, """ : { ""OpCode"" : """, B152, """, ""AddressingMode"": """,C152, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"INC [a16],X" : { "OpCode" : "0xfe", "AddressingMode": "AbsoluteX" },</v>
       </c>
       <c r="J152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"INC,X" : { "OpCode" : "0xfe", "AddressingMode": "AbsoluteX", "Format": "INC [a16],X", "Bytes": "2", "MinCycles": "4", "MaxCycles": "5" },</v>
       </c>
     </row>
@@ -6627,11 +6784,11 @@
         <v>2</v>
       </c>
       <c r="I153" t="str">
-        <f>_xlfn.CONCAT("""",A153, """ : { ""OpCode"" : """, B153, """, ""AddressingMode"": """,C153, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"BYTE [d8]" : { "OpCode" : "", "AddressingMode": "Immediate" },</v>
       </c>
       <c r="J153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"" : { "OpCode" : "", "AddressingMode": "Immediate", "Format": "BYTE [d8]", "Bytes": "1", "MinCycles": "2", "MaxCycles": "2" },</v>
       </c>
     </row>
@@ -6652,11 +6809,11 @@
         <v>4</v>
       </c>
       <c r="I154" t="str">
-        <f>_xlfn.CONCAT("""",A154, """ : { ""OpCode"" : """, B154, """, ""AddressingMode"": """,C154, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"WORD [a16]" : { "OpCode" : "", "AddressingMode": "Absolute" },</v>
       </c>
       <c r="J154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"" : { "OpCode" : "", "AddressingMode": "Absolute", "Format": "WORD [a16]", "Bytes": "2", "MinCycles": "4", "MaxCycles": "4" },</v>
       </c>
     </row>
@@ -6668,11 +6825,11 @@
         <v>322</v>
       </c>
       <c r="I155" t="str">
-        <f>_xlfn.CONCAT("""",A155, """ : { ""OpCode"" : """, B155, """, ""AddressingMode"": """,C155, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"" : { "OpCode" : "", "AddressingMode": "" },</v>
       </c>
       <c r="J155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"DATA" : { "OpCode" : "", "AddressingMode": "", "Format": "", "Bytes": "2", "MinCycles": "", "MaxCycles": "" },</v>
       </c>
     </row>
@@ -6684,11 +6841,11 @@
         <v>323</v>
       </c>
       <c r="I156" t="str">
-        <f>_xlfn.CONCAT("""",A156, """ : { ""OpCode"" : """, B156, """, ""AddressingMode"": """,C156, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"" : { "OpCode" : "", "AddressingMode": "" },</v>
       </c>
       <c r="J156" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>"DATA.b" : { "OpCode" : "", "AddressingMode": "", "Format": "", "Bytes": "1", "MinCycles": "", "MaxCycles": "" },</v>
       </c>
     </row>
@@ -6703,11 +6860,11 @@
         <v>342</v>
       </c>
       <c r="I157" t="str">
-        <f>_xlfn.CONCAT("""",A157, """ : { ""OpCode"" : """, B157, """, ""AddressingMode"": """,C157, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"" : { "OpCode" : "", "AddressingMode": "Data" },</v>
       </c>
-      <c r="J157" s="1" t="str">
-        <f t="shared" ref="J157:J158" si="3">_xlfn.CONCAT("""",H157,""" : { ""OpCode"" : """,B157,""", ""AddressingMode"": """,C157,""", ""Format"": """,A157,""", ""Bytes"": """,D157,""", ""MinCycles"": """,E157,""", ""MaxCycles"": """,F157,""" },")</f>
+      <c r="J157" t="str">
+        <f t="shared" ref="J157:J158" si="8">_xlfn.CONCAT("""",H157,""" : { ""OpCode"" : """,B157,""", ""AddressingMode"": """,C157,""", ""Format"": """,A157,""", ""Bytes"": """,D157,""", ""MinCycles"": """,E157,""", ""MaxCycles"": """,F157,""" },")</f>
         <v>"FILL" : { "OpCode" : "", "AddressingMode": "Data", "Format": "", "Bytes": "0", "MinCycles": "", "MaxCycles": "" },</v>
       </c>
     </row>
@@ -6722,11 +6879,11 @@
         <v>344</v>
       </c>
       <c r="I158" t="str">
-        <f>_xlfn.CONCAT("""",A158, """ : { ""OpCode"" : """, B158, """, ""AddressingMode"": """,C158, """ }," )</f>
+        <f t="shared" si="6"/>
         <v>"" : { "OpCode" : "", "AddressingMode": "Data" },</v>
       </c>
-      <c r="J158" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="J158" t="str">
+        <f t="shared" si="8"/>
         <v>"PAD" : { "OpCode" : "", "AddressingMode": "Data", "Format": "", "Bytes": "0", "MinCycles": "", "MaxCycles": "" },</v>
       </c>
     </row>
@@ -6740,10 +6897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B0FFDE-14D2-4B10-A02A-C4E4C60809C1}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6751,76 +6908,5165 @@
     <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>268</v>
       </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A14" xr:uid="{33B0FFDE-14D2-4B10-A02A-C4E4C60809C1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A154">
-    <sortCondition ref="A1:A154"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A155">
+    <sortCondition ref="A2:A155"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D648A80-846B-413F-8058-B3BC7D4F54A6}">
+  <dimension ref="A1:M152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41" style="13" customWidth="1"/>
+    <col min="12" max="12" width="59.85546875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
+      <c r="K2" s="13" t="str">
+        <f>CONCATENATE(B2, REPT(" ", 14 - LEN(B2)), UPPER(SUBSTITUTE(F2,"0x","")),IF(G2=2," d8",IF(G2=3," al ah","")))</f>
+        <v>ADC #[d8]     69 d8</v>
+      </c>
+      <c r="L2" s="13" t="str">
+        <f>CONCATENATE(K2,REPT(" ",25-LEN(K2)),IF(H2=I2,H2,CONCATENATE(H2,"\",I2)))</f>
+        <v>ADC #[d8]     69 d8      2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12">
+        <v>6</v>
+      </c>
+      <c r="K3" s="13" t="str">
+        <f t="shared" ref="K3:K66" si="0">CONCATENATE(B3, REPT(" ", 14 - LEN(B3)), UPPER(SUBSTITUTE(F3,"0x","")),IF(G3=2," d8",IF(G3=3," al ah","")))</f>
+        <v>ADC ([d8]),Y  71 d8</v>
+      </c>
+      <c r="L3" s="13" t="str">
+        <f t="shared" ref="L3:L66" si="1">CONCATENATE(K3,REPT(" ",25-LEN(K3)),IF(H3=I3,H3,CONCATENATE(H3,"\",I3)))</f>
+        <v>ADC ([d8]),Y  71 d8      6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6</v>
+      </c>
+      <c r="K4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ADC ([d8],X)  61 d8</v>
+      </c>
+      <c r="L4" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ADC ([d8],X)  61 d8      5\6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3</v>
+      </c>
+      <c r="H5" s="11">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12">
+        <v>4</v>
+      </c>
+      <c r="K5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ADC [a16]     6D al ah</v>
+      </c>
+      <c r="L5" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ADC [a16]     6D al ah   4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9">
+        <v>5</v>
+      </c>
+      <c r="K6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ADC [a16],X   7D al ah</v>
+      </c>
+      <c r="L6" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ADC [a16],X   7D al ah   4\5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="11">
+        <v>3</v>
+      </c>
+      <c r="H7" s="11">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12">
+        <v>5</v>
+      </c>
+      <c r="K7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ADC [a16],Y   79 al ah</v>
+      </c>
+      <c r="L7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ADC [a16],Y   79 al ah   4\5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>3</v>
+      </c>
+      <c r="K8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ADC [d8]      65 d8</v>
+      </c>
+      <c r="L8" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ADC [d8]      65 d8      3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12">
+        <v>4</v>
+      </c>
+      <c r="K9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ADC [d8],X    75 d8</v>
+      </c>
+      <c r="L9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ADC [d8],X    75 d8      4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2</v>
+      </c>
+      <c r="K10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>AND #[d8]     29 d8</v>
+      </c>
+      <c r="L10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>AND #[d8]     29 d8      2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>6</v>
+      </c>
+      <c r="I11" s="12">
+        <v>6</v>
+      </c>
+      <c r="K11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>AND ([d8]),Y  31 d8</v>
+      </c>
+      <c r="L11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>AND ([d8]),Y  31 d8      6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>5</v>
+      </c>
+      <c r="I12" s="9">
+        <v>6</v>
+      </c>
+      <c r="K12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>AND ([d8],X)  21 d8</v>
+      </c>
+      <c r="L12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>AND ([d8],X)  21 d8      5\6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3</v>
+      </c>
+      <c r="H13" s="11">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12">
+        <v>4</v>
+      </c>
+      <c r="K13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>AND [a16]     2D al ah</v>
+      </c>
+      <c r="L13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>AND [a16]     2D al ah   4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3</v>
+      </c>
+      <c r="H14" s="8">
+        <v>4</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5</v>
+      </c>
+      <c r="K14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>AND [a16],X   3D al ah</v>
+      </c>
+      <c r="L14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>AND [a16],X   3D al ah   4\5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12">
+        <v>5</v>
+      </c>
+      <c r="K15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>AND [a16],Y   39 al ah</v>
+      </c>
+      <c r="L15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>AND [a16],Y   39 al ah   4\5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2</v>
+      </c>
+      <c r="H16" s="8">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3</v>
+      </c>
+      <c r="K16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>AND [d8]      25 d8</v>
+      </c>
+      <c r="L16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>AND [d8]      25 d8      3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12">
+        <v>4</v>
+      </c>
+      <c r="K17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>AND [d8],X    35 d8</v>
+      </c>
+      <c r="L17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>AND [d8],X    35 d8      4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="8">
+        <v>3</v>
+      </c>
+      <c r="H18" s="8">
+        <v>4</v>
+      </c>
+      <c r="I18" s="9">
+        <v>4</v>
+      </c>
+      <c r="K18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ASL [a16]     0E al ah</v>
+      </c>
+      <c r="L18" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ASL [a16]     0E al ah   4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="11">
+        <v>3</v>
+      </c>
+      <c r="H19" s="11">
+        <v>4</v>
+      </c>
+      <c r="I19" s="12">
+        <v>5</v>
+      </c>
+      <c r="K19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ASL [a16],X   1E al ah</v>
+      </c>
+      <c r="L19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ASL [a16],X   1E al ah   4\5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>3</v>
+      </c>
+      <c r="I20" s="9">
+        <v>3</v>
+      </c>
+      <c r="K20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ASL [d8]      06 d8</v>
+      </c>
+      <c r="L20" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ASL [d8]      06 d8      3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="11">
+        <v>2</v>
+      </c>
+      <c r="H21" s="11">
+        <v>4</v>
+      </c>
+      <c r="I21" s="12">
+        <v>4</v>
+      </c>
+      <c r="K21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ASL [d8],X    16 d8</v>
+      </c>
+      <c r="L21" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ASL [d8],X    16 d8      4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2</v>
+      </c>
+      <c r="K22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ASL A         0A</v>
+      </c>
+      <c r="L22" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ASL A         0A         2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="11">
+        <v>2</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2</v>
+      </c>
+      <c r="I23" s="12">
+        <v>4</v>
+      </c>
+      <c r="K23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BCC [r8]      90 d8</v>
+      </c>
+      <c r="L23" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>BCC [r8]      90 d8      2\4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2</v>
+      </c>
+      <c r="I24" s="9">
+        <v>4</v>
+      </c>
+      <c r="K24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BCS [r8]      B0 d8</v>
+      </c>
+      <c r="L24" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>BCS [r8]      B0 d8      2\4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="11">
+        <v>2</v>
+      </c>
+      <c r="H25" s="11">
+        <v>2</v>
+      </c>
+      <c r="I25" s="12">
+        <v>4</v>
+      </c>
+      <c r="K25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BEQ [r8]      F0 d8</v>
+      </c>
+      <c r="L25" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>BEQ [r8]      F0 d8      2\4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="8">
+        <v>3</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4</v>
+      </c>
+      <c r="I26" s="9">
+        <v>4</v>
+      </c>
+      <c r="K26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BIT [a16]     2C al ah</v>
+      </c>
+      <c r="L26" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>BIT [a16]     2C al ah   4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" s="11">
+        <v>2</v>
+      </c>
+      <c r="H27" s="11">
+        <v>3</v>
+      </c>
+      <c r="I27" s="12">
+        <v>3</v>
+      </c>
+      <c r="K27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BIT [d8]      24 d8</v>
+      </c>
+      <c r="L27" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>BIT [d8]      24 d8      3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2</v>
+      </c>
+      <c r="I28" s="9">
+        <v>4</v>
+      </c>
+      <c r="K28" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BMI [r8]      30 d8</v>
+      </c>
+      <c r="L28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>BMI [r8]      30 d8      2\4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="11">
+        <v>2</v>
+      </c>
+      <c r="H29" s="11">
+        <v>2</v>
+      </c>
+      <c r="I29" s="12">
+        <v>4</v>
+      </c>
+      <c r="K29" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BNE [r8]      D0 d8</v>
+      </c>
+      <c r="L29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>BNE [r8]      D0 d8      2\4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2</v>
+      </c>
+      <c r="H30" s="8">
+        <v>2</v>
+      </c>
+      <c r="I30" s="9">
+        <v>4</v>
+      </c>
+      <c r="K30" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BPL [r8]      10 d8</v>
+      </c>
+      <c r="L30" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>BPL [r8]      10 d8      2\4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11">
+        <v>2</v>
+      </c>
+      <c r="I31" s="12">
+        <v>2</v>
+      </c>
+      <c r="K31" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BRK           00</v>
+      </c>
+      <c r="L31" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>BRK           00         2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2</v>
+      </c>
+      <c r="I32" s="9">
+        <v>4</v>
+      </c>
+      <c r="K32" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BVC [r8]      50 d8</v>
+      </c>
+      <c r="L32" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>BVC [r8]      50 d8      2\4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="11">
+        <v>2</v>
+      </c>
+      <c r="H33" s="11">
+        <v>2</v>
+      </c>
+      <c r="I33" s="12">
+        <v>4</v>
+      </c>
+      <c r="K33" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BVS [r8]      70 d8</v>
+      </c>
+      <c r="L33" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>BVS [r8]      70 d8      2\4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8">
+        <v>2</v>
+      </c>
+      <c r="I34" s="9">
+        <v>2</v>
+      </c>
+      <c r="K34" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CLC           18</v>
+      </c>
+      <c r="L34" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CLC           18         2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11">
+        <v>2</v>
+      </c>
+      <c r="I35" s="12">
+        <v>2</v>
+      </c>
+      <c r="K35" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CLD           D8</v>
+      </c>
+      <c r="L35" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CLD           D8         2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="H36" s="8">
+        <v>2</v>
+      </c>
+      <c r="I36" s="9">
+        <v>2</v>
+      </c>
+      <c r="K36" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CLI           58</v>
+      </c>
+      <c r="L36" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CLI           58         2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11">
+        <v>2</v>
+      </c>
+      <c r="I37" s="12">
+        <v>2</v>
+      </c>
+      <c r="K37" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CLV           B8</v>
+      </c>
+      <c r="L37" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CLV           B8         2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="8">
+        <v>2</v>
+      </c>
+      <c r="H38" s="8">
+        <v>2</v>
+      </c>
+      <c r="I38" s="9">
+        <v>2</v>
+      </c>
+      <c r="K38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CMP #[d8]     C9 d8</v>
+      </c>
+      <c r="L38" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CMP #[d8]     C9 d8      2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="11">
+        <v>2</v>
+      </c>
+      <c r="H39" s="11">
+        <v>6</v>
+      </c>
+      <c r="I39" s="12">
+        <v>6</v>
+      </c>
+      <c r="K39" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CMP ([d8]),Y  D1 d8</v>
+      </c>
+      <c r="L39" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CMP ([d8]),Y  D1 d8      6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="8">
+        <v>2</v>
+      </c>
+      <c r="H40" s="8">
+        <v>5</v>
+      </c>
+      <c r="I40" s="9">
+        <v>6</v>
+      </c>
+      <c r="K40" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CMP ([d8],X)  C1 d8</v>
+      </c>
+      <c r="L40" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CMP ([d8],X)  C1 d8      5\6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="11">
+        <v>3</v>
+      </c>
+      <c r="H41" s="11">
+        <v>4</v>
+      </c>
+      <c r="I41" s="12">
+        <v>4</v>
+      </c>
+      <c r="K41" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CMP [a16]     CD al ah</v>
+      </c>
+      <c r="L41" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CMP [a16]     CD al ah   4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="8">
+        <v>3</v>
+      </c>
+      <c r="H42" s="8">
+        <v>4</v>
+      </c>
+      <c r="I42" s="9">
+        <v>5</v>
+      </c>
+      <c r="K42" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CMP [a16],X   DD al ah</v>
+      </c>
+      <c r="L42" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CMP [a16],X   DD al ah   4\5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="11">
+        <v>3</v>
+      </c>
+      <c r="H43" s="11">
+        <v>4</v>
+      </c>
+      <c r="I43" s="12">
+        <v>5</v>
+      </c>
+      <c r="K43" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CMP [a16],Y   D9 al ah</v>
+      </c>
+      <c r="L43" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CMP [a16],Y   D9 al ah   4\5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="8">
+        <v>2</v>
+      </c>
+      <c r="H44" s="8">
+        <v>3</v>
+      </c>
+      <c r="I44" s="9">
+        <v>3</v>
+      </c>
+      <c r="K44" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CMP [d8]      C5 d8</v>
+      </c>
+      <c r="L44" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CMP [d8]      C5 d8      3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="11">
+        <v>2</v>
+      </c>
+      <c r="H45" s="11">
+        <v>4</v>
+      </c>
+      <c r="I45" s="12">
+        <v>4</v>
+      </c>
+      <c r="K45" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CMP [d8],X    D5 d8</v>
+      </c>
+      <c r="L45" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CMP [d8],X    D5 d8      4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" s="8">
+        <v>2</v>
+      </c>
+      <c r="H46" s="8">
+        <v>2</v>
+      </c>
+      <c r="I46" s="9">
+        <v>2</v>
+      </c>
+      <c r="K46" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CPX #[d8]     E0 d8</v>
+      </c>
+      <c r="L46" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CPX #[d8]     E0 d8      2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G47" s="11">
+        <v>3</v>
+      </c>
+      <c r="H47" s="11">
+        <v>4</v>
+      </c>
+      <c r="I47" s="12">
+        <v>4</v>
+      </c>
+      <c r="K47" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CPX [a16]     EC al ah</v>
+      </c>
+      <c r="L47" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CPX [a16]     EC al ah   4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="8">
+        <v>2</v>
+      </c>
+      <c r="H48" s="8">
+        <v>3</v>
+      </c>
+      <c r="I48" s="9">
+        <v>3</v>
+      </c>
+      <c r="K48" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CPX [d8]      E4 d8</v>
+      </c>
+      <c r="L48" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CPX [d8]      E4 d8      3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G49" s="11">
+        <v>2</v>
+      </c>
+      <c r="H49" s="11">
+        <v>2</v>
+      </c>
+      <c r="I49" s="12">
+        <v>2</v>
+      </c>
+      <c r="K49" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CPY #[d8]     C0 d8</v>
+      </c>
+      <c r="L49" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CPY #[d8]     C0 d8      2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G50" s="8">
+        <v>3</v>
+      </c>
+      <c r="H50" s="8">
+        <v>4</v>
+      </c>
+      <c r="I50" s="9">
+        <v>4</v>
+      </c>
+      <c r="K50" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CPY [a16]     CC al ah</v>
+      </c>
+      <c r="L50" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CPY [a16]     CC al ah   4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51" s="11">
+        <v>2</v>
+      </c>
+      <c r="H51" s="11">
+        <v>3</v>
+      </c>
+      <c r="I51" s="12">
+        <v>3</v>
+      </c>
+      <c r="K51" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>CPY [d8]      C4 d8</v>
+      </c>
+      <c r="L51" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>CPY [d8]      C4 d8      3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G52" s="8">
+        <v>3</v>
+      </c>
+      <c r="H52" s="8">
+        <v>4</v>
+      </c>
+      <c r="I52" s="9">
+        <v>4</v>
+      </c>
+      <c r="K52" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>DEC [a16]     CE al ah</v>
+      </c>
+      <c r="L52" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>DEC [a16]     CE al ah   4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="11">
+        <v>3</v>
+      </c>
+      <c r="H53" s="11">
+        <v>4</v>
+      </c>
+      <c r="I53" s="12">
+        <v>5</v>
+      </c>
+      <c r="K53" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>DEC [a16],X   DE al ah</v>
+      </c>
+      <c r="L53" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>DEC [a16],X   DE al ah   4\5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G54" s="8">
+        <v>2</v>
+      </c>
+      <c r="H54" s="8">
+        <v>3</v>
+      </c>
+      <c r="I54" s="9">
+        <v>3</v>
+      </c>
+      <c r="K54" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>DEC [d8]      C6 d8</v>
+      </c>
+      <c r="L54" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>DEC [d8]      C6 d8      3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G55" s="11">
+        <v>2</v>
+      </c>
+      <c r="H55" s="11">
+        <v>4</v>
+      </c>
+      <c r="I55" s="12">
+        <v>4</v>
+      </c>
+      <c r="K55" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>DEC [d8],X    D6 d8</v>
+      </c>
+      <c r="L55" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>DEC [d8],X    D6 d8      4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G56" s="8">
+        <v>1</v>
+      </c>
+      <c r="H56" s="8">
+        <v>2</v>
+      </c>
+      <c r="I56" s="9">
+        <v>2</v>
+      </c>
+      <c r="K56" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>DEX           CA</v>
+      </c>
+      <c r="L56" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>DEX           CA         2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G57" s="11">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11">
+        <v>2</v>
+      </c>
+      <c r="I57" s="12">
+        <v>2</v>
+      </c>
+      <c r="K57" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>DEY           88</v>
+      </c>
+      <c r="L57" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>DEY           88         2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="8">
+        <v>2</v>
+      </c>
+      <c r="H58" s="8">
+        <v>2</v>
+      </c>
+      <c r="I58" s="9">
+        <v>2</v>
+      </c>
+      <c r="K58" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EOR #[d8]     49 d8</v>
+      </c>
+      <c r="L58" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>EOR #[d8]     49 d8      2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G59" s="11">
+        <v>2</v>
+      </c>
+      <c r="H59" s="11">
+        <v>6</v>
+      </c>
+      <c r="I59" s="12">
+        <v>6</v>
+      </c>
+      <c r="K59" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EOR ([d8]),Y  51 d8</v>
+      </c>
+      <c r="L59" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>EOR ([d8]),Y  51 d8      6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="8">
+        <v>2</v>
+      </c>
+      <c r="H60" s="8">
+        <v>5</v>
+      </c>
+      <c r="I60" s="9">
+        <v>6</v>
+      </c>
+      <c r="K60" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EOR ([d8],X)  41 d8</v>
+      </c>
+      <c r="L60" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>EOR ([d8],X)  41 d8      5\6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" s="11">
+        <v>3</v>
+      </c>
+      <c r="H61" s="11">
+        <v>4</v>
+      </c>
+      <c r="I61" s="12">
+        <v>4</v>
+      </c>
+      <c r="K61" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EOR [a16]     4D al ah</v>
+      </c>
+      <c r="L61" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>EOR [a16]     4D al ah   4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" s="8">
+        <v>3</v>
+      </c>
+      <c r="H62" s="8">
+        <v>4</v>
+      </c>
+      <c r="I62" s="9">
+        <v>5</v>
+      </c>
+      <c r="K62" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EOR [a16],X   5D al ah</v>
+      </c>
+      <c r="L62" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>EOR [a16],X   5D al ah   4\5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" s="11">
+        <v>3</v>
+      </c>
+      <c r="H63" s="11">
+        <v>4</v>
+      </c>
+      <c r="I63" s="12">
+        <v>5</v>
+      </c>
+      <c r="K63" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EOR [a16],Y   59 al ah</v>
+      </c>
+      <c r="L63" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>EOR [a16],Y   59 al ah   4\5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" s="8">
+        <v>2</v>
+      </c>
+      <c r="H64" s="8">
+        <v>3</v>
+      </c>
+      <c r="I64" s="9">
+        <v>3</v>
+      </c>
+      <c r="K64" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EOR [d8]      45 d8</v>
+      </c>
+      <c r="L64" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>EOR [d8]      45 d8      3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" s="11">
+        <v>2</v>
+      </c>
+      <c r="H65" s="11">
+        <v>4</v>
+      </c>
+      <c r="I65" s="12">
+        <v>4</v>
+      </c>
+      <c r="K65" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>EOR [d8],X    55 d8</v>
+      </c>
+      <c r="L65" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>EOR [d8],X    55 d8      4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G66" s="8">
+        <v>3</v>
+      </c>
+      <c r="H66" s="8">
+        <v>4</v>
+      </c>
+      <c r="I66" s="9">
+        <v>4</v>
+      </c>
+      <c r="K66" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>INC [a16]     EE al ah</v>
+      </c>
+      <c r="L66" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>INC [a16]     EE al ah   4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" s="11">
+        <v>3</v>
+      </c>
+      <c r="H67" s="11">
+        <v>4</v>
+      </c>
+      <c r="I67" s="12">
+        <v>5</v>
+      </c>
+      <c r="K67" s="13" t="str">
+        <f t="shared" ref="K67:K130" si="2">CONCATENATE(B67, REPT(" ", 14 - LEN(B67)), UPPER(SUBSTITUTE(F67,"0x","")),IF(G67=2," d8",IF(G67=3," al ah","")))</f>
+        <v>INC [a16],X   FE al ah</v>
+      </c>
+      <c r="L67" s="13" t="str">
+        <f t="shared" ref="L67:L130" si="3">CONCATENATE(K67,REPT(" ",25-LEN(K67)),IF(H67=I67,H67,CONCATENATE(H67,"\",I67)))</f>
+        <v>INC [a16],X   FE al ah   4\5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G68" s="8">
+        <v>2</v>
+      </c>
+      <c r="H68" s="8">
+        <v>3</v>
+      </c>
+      <c r="I68" s="9">
+        <v>3</v>
+      </c>
+      <c r="K68" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>INC [d8]      E6 d8</v>
+      </c>
+      <c r="L68" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>INC [d8]      E6 d8      3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G69" s="11">
+        <v>2</v>
+      </c>
+      <c r="H69" s="11">
+        <v>4</v>
+      </c>
+      <c r="I69" s="12">
+        <v>4</v>
+      </c>
+      <c r="K69" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>INC [d8],X    F6 d8</v>
+      </c>
+      <c r="L69" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>INC [d8],X    F6 d8      4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G70" s="8">
+        <v>1</v>
+      </c>
+      <c r="H70" s="8">
+        <v>2</v>
+      </c>
+      <c r="I70" s="9">
+        <v>2</v>
+      </c>
+      <c r="K70" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>INX           E8</v>
+      </c>
+      <c r="L70" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>INX           E8         2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G71" s="11">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11">
+        <v>2</v>
+      </c>
+      <c r="I71" s="12">
+        <v>2</v>
+      </c>
+      <c r="K71" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>INY           C8</v>
+      </c>
+      <c r="L71" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>INY           C8         2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" s="8">
+        <v>3</v>
+      </c>
+      <c r="H72" s="8">
+        <v>5</v>
+      </c>
+      <c r="I72" s="9">
+        <v>5</v>
+      </c>
+      <c r="K72" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>JMP ([a16])   6C al ah</v>
+      </c>
+      <c r="L72" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>JMP ([a16])   6C al ah   5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G73" s="11">
+        <v>3</v>
+      </c>
+      <c r="H73" s="11">
+        <v>4</v>
+      </c>
+      <c r="I73" s="12">
+        <v>4</v>
+      </c>
+      <c r="K73" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>JMP [a16]     4C al ah</v>
+      </c>
+      <c r="L73" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>JMP [a16]     4C al ah   4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" s="8">
+        <v>3</v>
+      </c>
+      <c r="H74" s="8">
+        <v>4</v>
+      </c>
+      <c r="I74" s="9">
+        <v>4</v>
+      </c>
+      <c r="K74" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>JSR [a16]     20 al ah</v>
+      </c>
+      <c r="L74" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>JSR [a16]     20 al ah   4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="11">
+        <v>2</v>
+      </c>
+      <c r="H75" s="11">
+        <v>2</v>
+      </c>
+      <c r="I75" s="12">
+        <v>2</v>
+      </c>
+      <c r="K75" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDA #[d8]     A9 d8</v>
+      </c>
+      <c r="L75" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDA #[d8]     A9 d8      2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="8">
+        <v>2</v>
+      </c>
+      <c r="H76" s="8">
+        <v>6</v>
+      </c>
+      <c r="I76" s="9">
+        <v>6</v>
+      </c>
+      <c r="K76" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDA ([d8]),Y  B1 d8</v>
+      </c>
+      <c r="L76" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDA ([d8]),Y  B1 d8      6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="11">
+        <v>2</v>
+      </c>
+      <c r="H77" s="11">
+        <v>5</v>
+      </c>
+      <c r="I77" s="12">
+        <v>6</v>
+      </c>
+      <c r="K77" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDA ([d8],X)  A1 d8</v>
+      </c>
+      <c r="L77" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDA ([d8],X)  A1 d8      5\6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="8">
+        <v>3</v>
+      </c>
+      <c r="H78" s="8">
+        <v>4</v>
+      </c>
+      <c r="I78" s="9">
+        <v>4</v>
+      </c>
+      <c r="K78" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDA [a16]     AD al ah</v>
+      </c>
+      <c r="L78" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDA [a16]     AD al ah   4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="11">
+        <v>3</v>
+      </c>
+      <c r="H79" s="11">
+        <v>4</v>
+      </c>
+      <c r="I79" s="12">
+        <v>5</v>
+      </c>
+      <c r="K79" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDA [a16],X   BD al ah</v>
+      </c>
+      <c r="L79" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDA [a16],X   BD al ah   4\5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="8">
+        <v>3</v>
+      </c>
+      <c r="H80" s="8">
+        <v>4</v>
+      </c>
+      <c r="I80" s="9">
+        <v>5</v>
+      </c>
+      <c r="K80" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDA [a16],Y   B9 al ah</v>
+      </c>
+      <c r="L80" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDA [a16],Y   B9 al ah   4\5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="11">
+        <v>2</v>
+      </c>
+      <c r="H81" s="11">
+        <v>3</v>
+      </c>
+      <c r="I81" s="12">
+        <v>3</v>
+      </c>
+      <c r="K81" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDA [d8]      A5 d8</v>
+      </c>
+      <c r="L81" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDA [d8]      A5 d8      3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="8">
+        <v>2</v>
+      </c>
+      <c r="H82" s="8">
+        <v>4</v>
+      </c>
+      <c r="I82" s="9">
+        <v>4</v>
+      </c>
+      <c r="K82" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDA [d8],X    B5 d8</v>
+      </c>
+      <c r="L82" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDA [d8],X    B5 d8      4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G83" s="11">
+        <v>2</v>
+      </c>
+      <c r="H83" s="11">
+        <v>2</v>
+      </c>
+      <c r="I83" s="12">
+        <v>2</v>
+      </c>
+      <c r="K83" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDX #[d8]     A2 d8</v>
+      </c>
+      <c r="L83" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDX #[d8]     A2 d8      2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G84" s="8">
+        <v>3</v>
+      </c>
+      <c r="H84" s="8">
+        <v>4</v>
+      </c>
+      <c r="I84" s="9">
+        <v>4</v>
+      </c>
+      <c r="K84" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDX [a16]     AE al ah</v>
+      </c>
+      <c r="L84" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDX [a16]     AE al ah   4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G85" s="11">
+        <v>3</v>
+      </c>
+      <c r="H85" s="11">
+        <v>4</v>
+      </c>
+      <c r="I85" s="12">
+        <v>5</v>
+      </c>
+      <c r="K85" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDX [a16],Y   BE al ah</v>
+      </c>
+      <c r="L85" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDX [a16],Y   BE al ah   4\5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G86" s="8">
+        <v>2</v>
+      </c>
+      <c r="H86" s="8">
+        <v>3</v>
+      </c>
+      <c r="I86" s="9">
+        <v>3</v>
+      </c>
+      <c r="K86" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDX [d8]      A6 d8</v>
+      </c>
+      <c r="L86" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDX [d8]      A6 d8      3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G87" s="11">
+        <v>2</v>
+      </c>
+      <c r="H87" s="11">
+        <v>4</v>
+      </c>
+      <c r="I87" s="12">
+        <v>4</v>
+      </c>
+      <c r="K87" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDX [d8],Y    B6 d8</v>
+      </c>
+      <c r="L87" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDX [d8],Y    B6 d8      4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G88" s="8">
+        <v>2</v>
+      </c>
+      <c r="H88" s="8">
+        <v>2</v>
+      </c>
+      <c r="I88" s="9">
+        <v>2</v>
+      </c>
+      <c r="K88" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDY #[d8]     A0 d8</v>
+      </c>
+      <c r="L88" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDY #[d8]     A0 d8      2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G89" s="11">
+        <v>3</v>
+      </c>
+      <c r="H89" s="11">
+        <v>4</v>
+      </c>
+      <c r="I89" s="12">
+        <v>4</v>
+      </c>
+      <c r="K89" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDY [a16]     AC al ah</v>
+      </c>
+      <c r="L89" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDY [a16]     AC al ah   4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G90" s="8">
+        <v>3</v>
+      </c>
+      <c r="H90" s="8">
+        <v>4</v>
+      </c>
+      <c r="I90" s="9">
+        <v>5</v>
+      </c>
+      <c r="K90" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDY [a16],X   BC al ah</v>
+      </c>
+      <c r="L90" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDY [a16],X   BC al ah   4\5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G91" s="11">
+        <v>2</v>
+      </c>
+      <c r="H91" s="11">
+        <v>3</v>
+      </c>
+      <c r="I91" s="12">
+        <v>3</v>
+      </c>
+      <c r="K91" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDY [d8]      A4 d8</v>
+      </c>
+      <c r="L91" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDY [d8]      A4 d8      3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G92" s="8">
+        <v>2</v>
+      </c>
+      <c r="H92" s="8">
+        <v>4</v>
+      </c>
+      <c r="I92" s="9">
+        <v>4</v>
+      </c>
+      <c r="K92" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LDY [d8],X    B4 d8</v>
+      </c>
+      <c r="L92" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LDY [d8],X    B4 d8      4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G93" s="11">
+        <v>3</v>
+      </c>
+      <c r="H93" s="11">
+        <v>4</v>
+      </c>
+      <c r="I93" s="12">
+        <v>4</v>
+      </c>
+      <c r="K93" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LSR [a16]     4E al ah</v>
+      </c>
+      <c r="L93" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LSR [a16]     4E al ah   4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G94" s="8">
+        <v>3</v>
+      </c>
+      <c r="H94" s="8">
+        <v>4</v>
+      </c>
+      <c r="I94" s="9">
+        <v>5</v>
+      </c>
+      <c r="K94" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LSR [a16],X   5E al ah</v>
+      </c>
+      <c r="L94" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LSR [a16],X   5E al ah   4\5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G95" s="11">
+        <v>2</v>
+      </c>
+      <c r="H95" s="11">
+        <v>3</v>
+      </c>
+      <c r="I95" s="12">
+        <v>3</v>
+      </c>
+      <c r="K95" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LSR [d8]      46 d8</v>
+      </c>
+      <c r="L95" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LSR [d8]      46 d8      3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G96" s="8">
+        <v>2</v>
+      </c>
+      <c r="H96" s="8">
+        <v>4</v>
+      </c>
+      <c r="I96" s="9">
+        <v>4</v>
+      </c>
+      <c r="K96" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LSR [d8],X    56 d8</v>
+      </c>
+      <c r="L96" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LSR [d8],X    56 d8      4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G97" s="11">
+        <v>1</v>
+      </c>
+      <c r="H97" s="11">
+        <v>2</v>
+      </c>
+      <c r="I97" s="12">
+        <v>2</v>
+      </c>
+      <c r="K97" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>LSR A         4A</v>
+      </c>
+      <c r="L97" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>LSR A         4A         2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G98" s="8">
+        <v>1</v>
+      </c>
+      <c r="H98" s="8">
+        <v>2</v>
+      </c>
+      <c r="I98" s="9">
+        <v>2</v>
+      </c>
+      <c r="K98" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>NOP           EA</v>
+      </c>
+      <c r="L98" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>NOP           EA         2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G99" s="11">
+        <v>2</v>
+      </c>
+      <c r="H99" s="11">
+        <v>2</v>
+      </c>
+      <c r="I99" s="12">
+        <v>2</v>
+      </c>
+      <c r="K99" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ORA #[d8]     09 d8</v>
+      </c>
+      <c r="L99" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ORA #[d8]     09 d8      2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G100" s="8">
+        <v>2</v>
+      </c>
+      <c r="H100" s="8">
+        <v>6</v>
+      </c>
+      <c r="I100" s="9">
+        <v>6</v>
+      </c>
+      <c r="K100" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ORA ([d8]),Y  11 d8</v>
+      </c>
+      <c r="L100" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ORA ([d8]),Y  11 d8      6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G101" s="11">
+        <v>2</v>
+      </c>
+      <c r="H101" s="11">
+        <v>5</v>
+      </c>
+      <c r="I101" s="12">
+        <v>6</v>
+      </c>
+      <c r="K101" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ORA ([d8],X)  01 d8</v>
+      </c>
+      <c r="L101" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ORA ([d8],X)  01 d8      5\6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G102" s="8">
+        <v>3</v>
+      </c>
+      <c r="H102" s="8">
+        <v>4</v>
+      </c>
+      <c r="I102" s="9">
+        <v>4</v>
+      </c>
+      <c r="K102" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ORA [a16]     0D al ah</v>
+      </c>
+      <c r="L102" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ORA [a16]     0D al ah   4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G103" s="11">
+        <v>3</v>
+      </c>
+      <c r="H103" s="11">
+        <v>4</v>
+      </c>
+      <c r="I103" s="12">
+        <v>5</v>
+      </c>
+      <c r="K103" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ORA [a16],X   1D al ah</v>
+      </c>
+      <c r="L103" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ORA [a16],X   1D al ah   4\5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G104" s="8">
+        <v>3</v>
+      </c>
+      <c r="H104" s="8">
+        <v>4</v>
+      </c>
+      <c r="I104" s="9">
+        <v>5</v>
+      </c>
+      <c r="K104" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ORA [a16],Y   19 al ah</v>
+      </c>
+      <c r="L104" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ORA [a16],Y   19 al ah   4\5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G105" s="11">
+        <v>2</v>
+      </c>
+      <c r="H105" s="11">
+        <v>3</v>
+      </c>
+      <c r="I105" s="12">
+        <v>3</v>
+      </c>
+      <c r="K105" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ORA [d8]      05 d8</v>
+      </c>
+      <c r="L105" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ORA [d8]      05 d8      3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G106" s="8">
+        <v>2</v>
+      </c>
+      <c r="H106" s="8">
+        <v>4</v>
+      </c>
+      <c r="I106" s="9">
+        <v>4</v>
+      </c>
+      <c r="K106" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ORA [d8],X    15 d8</v>
+      </c>
+      <c r="L106" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ORA [d8],X    15 d8      4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G107" s="11">
+        <v>1</v>
+      </c>
+      <c r="H107" s="11">
+        <v>2</v>
+      </c>
+      <c r="I107" s="12">
+        <v>2</v>
+      </c>
+      <c r="K107" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>PHA           48</v>
+      </c>
+      <c r="L107" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>PHA           48         2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G108" s="8">
+        <v>1</v>
+      </c>
+      <c r="H108" s="8">
+        <v>2</v>
+      </c>
+      <c r="I108" s="9">
+        <v>2</v>
+      </c>
+      <c r="K108" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>PHP           08</v>
+      </c>
+      <c r="L108" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>PHP           08         2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G109" s="11">
+        <v>1</v>
+      </c>
+      <c r="H109" s="11">
+        <v>2</v>
+      </c>
+      <c r="I109" s="12">
+        <v>2</v>
+      </c>
+      <c r="K109" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>PLA           68</v>
+      </c>
+      <c r="L109" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>PLA           68         2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G110" s="8">
+        <v>1</v>
+      </c>
+      <c r="H110" s="8">
+        <v>2</v>
+      </c>
+      <c r="I110" s="9">
+        <v>2</v>
+      </c>
+      <c r="K110" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>PLP           28</v>
+      </c>
+      <c r="L110" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>PLP           28         2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G111" s="11">
+        <v>3</v>
+      </c>
+      <c r="H111" s="11">
+        <v>4</v>
+      </c>
+      <c r="I111" s="12">
+        <v>4</v>
+      </c>
+      <c r="K111" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ROL [a16]     2E al ah</v>
+      </c>
+      <c r="L111" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ROL [a16]     2E al ah   4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G112" s="8">
+        <v>3</v>
+      </c>
+      <c r="H112" s="8">
+        <v>4</v>
+      </c>
+      <c r="I112" s="9">
+        <v>5</v>
+      </c>
+      <c r="K112" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ROL [a16],X   3E al ah</v>
+      </c>
+      <c r="L112" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ROL [a16],X   3E al ah   4\5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G113" s="11">
+        <v>2</v>
+      </c>
+      <c r="H113" s="11">
+        <v>3</v>
+      </c>
+      <c r="I113" s="12">
+        <v>3</v>
+      </c>
+      <c r="K113" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ROL [d8]      26 d8</v>
+      </c>
+      <c r="L113" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ROL [d8]      26 d8      3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G114" s="8">
+        <v>2</v>
+      </c>
+      <c r="H114" s="8">
+        <v>4</v>
+      </c>
+      <c r="I114" s="9">
+        <v>4</v>
+      </c>
+      <c r="K114" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ROL [d8],X    36 d8</v>
+      </c>
+      <c r="L114" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ROL [d8],X    36 d8      4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G115" s="11">
+        <v>1</v>
+      </c>
+      <c r="H115" s="11">
+        <v>2</v>
+      </c>
+      <c r="I115" s="12">
+        <v>2</v>
+      </c>
+      <c r="K115" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ROL A         2A</v>
+      </c>
+      <c r="L115" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ROL A         2A         2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G116" s="8">
+        <v>3</v>
+      </c>
+      <c r="H116" s="8">
+        <v>4</v>
+      </c>
+      <c r="I116" s="9">
+        <v>4</v>
+      </c>
+      <c r="K116" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ROR [a16]     6E al ah</v>
+      </c>
+      <c r="L116" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ROR [a16]     6E al ah   4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G117" s="11">
+        <v>3</v>
+      </c>
+      <c r="H117" s="11">
+        <v>4</v>
+      </c>
+      <c r="I117" s="12">
+        <v>5</v>
+      </c>
+      <c r="K117" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ROR [a16],X   7E al ah</v>
+      </c>
+      <c r="L117" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ROR [a16],X   7E al ah   4\5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G118" s="8">
+        <v>2</v>
+      </c>
+      <c r="H118" s="8">
+        <v>3</v>
+      </c>
+      <c r="I118" s="9">
+        <v>3</v>
+      </c>
+      <c r="K118" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ROR [d8]      66 d8</v>
+      </c>
+      <c r="L118" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ROR [d8]      66 d8      3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G119" s="11">
+        <v>2</v>
+      </c>
+      <c r="H119" s="11">
+        <v>4</v>
+      </c>
+      <c r="I119" s="12">
+        <v>4</v>
+      </c>
+      <c r="K119" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ROR [d8],X    76 d8</v>
+      </c>
+      <c r="L119" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ROR [d8],X    76 d8      4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G120" s="8">
+        <v>1</v>
+      </c>
+      <c r="H120" s="8">
+        <v>2</v>
+      </c>
+      <c r="I120" s="9">
+        <v>2</v>
+      </c>
+      <c r="K120" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ROR A         6A</v>
+      </c>
+      <c r="L120" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ROR A         6A         2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G121" s="11">
+        <v>1</v>
+      </c>
+      <c r="H121" s="11">
+        <v>2</v>
+      </c>
+      <c r="I121" s="12">
+        <v>2</v>
+      </c>
+      <c r="K121" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>RTI           40</v>
+      </c>
+      <c r="L121" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>RTI           40         2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" s="8">
+        <v>1</v>
+      </c>
+      <c r="H122" s="8">
+        <v>2</v>
+      </c>
+      <c r="I122" s="9">
+        <v>2</v>
+      </c>
+      <c r="K122" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>RTS           60</v>
+      </c>
+      <c r="L122" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>RTS           60         2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G123" s="11">
+        <v>2</v>
+      </c>
+      <c r="H123" s="11">
+        <v>2</v>
+      </c>
+      <c r="I123" s="12">
+        <v>2</v>
+      </c>
+      <c r="K123" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>SBC #[d8]     E9 d8</v>
+      </c>
+      <c r="L123" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>SBC #[d8]     E9 d8      2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G124" s="8">
+        <v>2</v>
+      </c>
+      <c r="H124" s="8">
+        <v>6</v>
+      </c>
+      <c r="I124" s="9">
+        <v>6</v>
+      </c>
+      <c r="K124" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>SBC ([d8]),Y  F1 d8</v>
+      </c>
+      <c r="L124" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>SBC ([d8]),Y  F1 d8      6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G125" s="11">
+        <v>2</v>
+      </c>
+      <c r="H125" s="11">
+        <v>5</v>
+      </c>
+      <c r="I125" s="12">
+        <v>6</v>
+      </c>
+      <c r="K125" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>SBC ([d8],X)  E1 d8</v>
+      </c>
+      <c r="L125" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>SBC ([d8],X)  E1 d8      5\6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G126" s="8">
+        <v>3</v>
+      </c>
+      <c r="H126" s="8">
+        <v>4</v>
+      </c>
+      <c r="I126" s="9">
+        <v>4</v>
+      </c>
+      <c r="K126" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>SBC [a16]     ED al ah</v>
+      </c>
+      <c r="L126" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>SBC [a16]     ED al ah   4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G127" s="11">
+        <v>3</v>
+      </c>
+      <c r="H127" s="11">
+        <v>4</v>
+      </c>
+      <c r="I127" s="12">
+        <v>5</v>
+      </c>
+      <c r="K127" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>SBC [a16],X   FD al ah</v>
+      </c>
+      <c r="L127" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>SBC [a16],X   FD al ah   4\5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G128" s="8">
+        <v>3</v>
+      </c>
+      <c r="H128" s="8">
+        <v>4</v>
+      </c>
+      <c r="I128" s="9">
+        <v>5</v>
+      </c>
+      <c r="K128" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>SBC [a16],Y   F9 al ah</v>
+      </c>
+      <c r="L128" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>SBC [a16],Y   F9 al ah   4\5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G129" s="11">
+        <v>2</v>
+      </c>
+      <c r="H129" s="11">
+        <v>3</v>
+      </c>
+      <c r="I129" s="12">
+        <v>3</v>
+      </c>
+      <c r="K129" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>SBC [d8]      E5 d8</v>
+      </c>
+      <c r="L129" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>SBC [d8]      E5 d8      3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G130" s="8">
+        <v>2</v>
+      </c>
+      <c r="H130" s="8">
+        <v>4</v>
+      </c>
+      <c r="I130" s="9">
+        <v>4</v>
+      </c>
+      <c r="K130" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>SBC [d8],X    F5 d8</v>
+      </c>
+      <c r="L130" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>SBC [d8],X    F5 d8      4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G131" s="11">
+        <v>1</v>
+      </c>
+      <c r="H131" s="11">
+        <v>2</v>
+      </c>
+      <c r="I131" s="12">
+        <v>2</v>
+      </c>
+      <c r="K131" s="13" t="str">
+        <f t="shared" ref="K131:K152" si="4">CONCATENATE(B131, REPT(" ", 14 - LEN(B131)), UPPER(SUBSTITUTE(F131,"0x","")),IF(G131=2," d8",IF(G131=3," al ah","")))</f>
+        <v>SEC           38</v>
+      </c>
+      <c r="L131" s="13" t="str">
+        <f t="shared" ref="L131:L152" si="5">CONCATENATE(K131,REPT(" ",25-LEN(K131)),IF(H131=I131,H131,CONCATENATE(H131,"\",I131)))</f>
+        <v>SEC           38         2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G132" s="8">
+        <v>1</v>
+      </c>
+      <c r="H132" s="8">
+        <v>2</v>
+      </c>
+      <c r="I132" s="9">
+        <v>2</v>
+      </c>
+      <c r="K132" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>SED           F8</v>
+      </c>
+      <c r="L132" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>SED           F8         2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G133" s="11">
+        <v>1</v>
+      </c>
+      <c r="H133" s="11">
+        <v>2</v>
+      </c>
+      <c r="I133" s="12">
+        <v>2</v>
+      </c>
+      <c r="K133" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>SEI           78</v>
+      </c>
+      <c r="L133" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>SEI           78         2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G134" s="8">
+        <v>2</v>
+      </c>
+      <c r="H134" s="8">
+        <v>6</v>
+      </c>
+      <c r="I134" s="9">
+        <v>6</v>
+      </c>
+      <c r="K134" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STA ([d8]),Y  91 d8</v>
+      </c>
+      <c r="L134" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STA ([d8]),Y  91 d8      6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G135" s="11">
+        <v>2</v>
+      </c>
+      <c r="H135" s="11">
+        <v>5</v>
+      </c>
+      <c r="I135" s="12">
+        <v>6</v>
+      </c>
+      <c r="K135" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STA ([d8],X)  81 d8</v>
+      </c>
+      <c r="L135" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STA ([d8],X)  81 d8      5\6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136" s="8">
+        <v>3</v>
+      </c>
+      <c r="H136" s="8">
+        <v>4</v>
+      </c>
+      <c r="I136" s="9">
+        <v>4</v>
+      </c>
+      <c r="K136" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STA [a16]     8D al ah</v>
+      </c>
+      <c r="L136" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STA [a16]     8D al ah   4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="11">
+        <v>3</v>
+      </c>
+      <c r="H137" s="11">
+        <v>4</v>
+      </c>
+      <c r="I137" s="12">
+        <v>5</v>
+      </c>
+      <c r="K137" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STA [a16],X   9D al ah</v>
+      </c>
+      <c r="L137" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STA [a16],X   9D al ah   4\5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G138" s="8">
+        <v>3</v>
+      </c>
+      <c r="H138" s="8">
+        <v>4</v>
+      </c>
+      <c r="I138" s="9">
+        <v>5</v>
+      </c>
+      <c r="K138" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STA [a16],Y   99 al ah</v>
+      </c>
+      <c r="L138" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STA [a16],Y   99 al ah   4\5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G139" s="11">
+        <v>2</v>
+      </c>
+      <c r="H139" s="11">
+        <v>3</v>
+      </c>
+      <c r="I139" s="12">
+        <v>3</v>
+      </c>
+      <c r="K139" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STA [d8]      85 d8</v>
+      </c>
+      <c r="L139" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STA [d8]      85 d8      3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G140" s="8">
+        <v>2</v>
+      </c>
+      <c r="H140" s="8">
+        <v>4</v>
+      </c>
+      <c r="I140" s="9">
+        <v>4</v>
+      </c>
+      <c r="K140" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STA [d8],X    95 d8</v>
+      </c>
+      <c r="L140" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STA [d8],X    95 d8      4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G141" s="11">
+        <v>3</v>
+      </c>
+      <c r="H141" s="11">
+        <v>4</v>
+      </c>
+      <c r="I141" s="12">
+        <v>4</v>
+      </c>
+      <c r="K141" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STX [a16]     8E al ah</v>
+      </c>
+      <c r="L141" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STX [a16]     8E al ah   4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G142" s="8">
+        <v>2</v>
+      </c>
+      <c r="H142" s="8">
+        <v>3</v>
+      </c>
+      <c r="I142" s="9">
+        <v>3</v>
+      </c>
+      <c r="K142" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STX [d8]      86 d8</v>
+      </c>
+      <c r="L142" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STX [d8]      86 d8      3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G143" s="11">
+        <v>2</v>
+      </c>
+      <c r="H143" s="11">
+        <v>4</v>
+      </c>
+      <c r="I143" s="12">
+        <v>4</v>
+      </c>
+      <c r="K143" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STX [d8],Y    96 d8</v>
+      </c>
+      <c r="L143" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STX [d8],Y    96 d8      4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G144" s="8">
+        <v>3</v>
+      </c>
+      <c r="H144" s="8">
+        <v>4</v>
+      </c>
+      <c r="I144" s="9">
+        <v>4</v>
+      </c>
+      <c r="K144" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STY [a16]     8C al ah</v>
+      </c>
+      <c r="L144" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STY [a16]     8C al ah   4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G145" s="11">
+        <v>2</v>
+      </c>
+      <c r="H145" s="11">
+        <v>3</v>
+      </c>
+      <c r="I145" s="12">
+        <v>3</v>
+      </c>
+      <c r="K145" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STY [d8]      84 d8</v>
+      </c>
+      <c r="L145" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STY [d8]      84 d8      3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G146" s="8">
+        <v>2</v>
+      </c>
+      <c r="H146" s="8">
+        <v>4</v>
+      </c>
+      <c r="I146" s="9">
+        <v>4</v>
+      </c>
+      <c r="K146" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>STY [d8],X    94 d8</v>
+      </c>
+      <c r="L146" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>STY [d8],X    94 d8      4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G147" s="11">
+        <v>1</v>
+      </c>
+      <c r="H147" s="11">
+        <v>2</v>
+      </c>
+      <c r="I147" s="12">
+        <v>2</v>
+      </c>
+      <c r="K147" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>TAX           AA</v>
+      </c>
+      <c r="L147" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>TAX           AA         2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G148" s="8">
+        <v>1</v>
+      </c>
+      <c r="H148" s="8">
+        <v>2</v>
+      </c>
+      <c r="I148" s="9">
+        <v>2</v>
+      </c>
+      <c r="K148" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>TAY           A8</v>
+      </c>
+      <c r="L148" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>TAY           A8         2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G149" s="11">
+        <v>1</v>
+      </c>
+      <c r="H149" s="11">
+        <v>2</v>
+      </c>
+      <c r="I149" s="12">
+        <v>2</v>
+      </c>
+      <c r="K149" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>TSX           BA</v>
+      </c>
+      <c r="L149" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>TSX           BA         2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G150" s="8">
+        <v>1</v>
+      </c>
+      <c r="H150" s="8">
+        <v>2</v>
+      </c>
+      <c r="I150" s="9">
+        <v>2</v>
+      </c>
+      <c r="K150" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>TXA           8A</v>
+      </c>
+      <c r="L150" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>TXA           8A         2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G151" s="11">
+        <v>1</v>
+      </c>
+      <c r="H151" s="11">
+        <v>2</v>
+      </c>
+      <c r="I151" s="12">
+        <v>2</v>
+      </c>
+      <c r="K151" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>TXS           9A</v>
+      </c>
+      <c r="L151" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>TXS           9A         2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G152" s="2">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2">
+        <v>2</v>
+      </c>
+      <c r="I152" s="3">
+        <v>2</v>
+      </c>
+      <c r="K152" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>TYA           98</v>
+      </c>
+      <c r="L152" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>TYA           98         2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>